--- a/docs/D03_鍵盤設計.xlsx
+++ b/docs/D03_鍵盤設計.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanjui/workspace/rime/ngeesiokthong/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanjui/workspace/rime/tsap-goo-im/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C8A48BD-2C0B-4049-80E1-B4DB250681BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8737BEF-FCDF-9648-88B5-3DF49B1D0617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35360" yWindow="640" windowWidth="33580" windowHeight="20900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-43180" yWindow="700" windowWidth="33580" windowHeight="20900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="鍵盤圖" sheetId="4" r:id="rId1"/>
-    <sheet name="聲韻母" sheetId="2" r:id="rId2"/>
-    <sheet name="說明" sheetId="5" r:id="rId3"/>
+    <sheet name="方音符號" sheetId="4" r:id="rId1"/>
+    <sheet name="TaiGi" sheetId="8" r:id="rId2"/>
+    <sheet name="台語注音符號" sheetId="7" r:id="rId3"/>
+    <sheet name="注音與方音符號" sheetId="6" r:id="rId4"/>
+    <sheet name="聲韻母" sheetId="2" r:id="rId5"/>
+    <sheet name="說明" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="424">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,14 +193,6 @@
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1481,18 +1476,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陽平(â)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陽上(ǎ)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陽入(ā)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陰平(a)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1505,19 +1492,241 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陽去(a̍h)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陰上(á)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>ｎ</t>
+  </si>
+  <si>
+    <t>序號</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>鍵盤</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>方音符號</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>ˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>·</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台羅拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鍵盤按鍵</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄝ</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄥ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陽去(ā)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陽入(a̍)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陽平(a)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四/八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典編碼</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>國際音標</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台羅拼音</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◌̃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聲調編號</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示符號</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>大寫編號</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>四聲八調</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>陰平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陰上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陰去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陰入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陽平</t>
+  </si>
+  <si>
+    <t>陽上</t>
+  </si>
+  <si>
+    <t>陽去</t>
+  </si>
+  <si>
+    <t>陽入</t>
+  </si>
+  <si>
+    <t>ˊ</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>_</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>á</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>à</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>ah</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>a̍h</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>â</t>
+  </si>
+  <si>
+    <t>ǎ</t>
+  </si>
+  <si>
+    <t>ā</t>
+  </si>
+  <si>
+    <t>字元調號</t>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+  </numFmts>
+  <fonts count="63">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1685,17 +1894,179 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="5"/>
+      <color rgb="FF00B0F0"/>
       <name val="LXGW WenKai Mono TC"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Iansui 094"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="Noto Serif TC Black"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="Noto Serif TC Medium"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="KangXiZiDian.com 康熙字典體常用版"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="KangXiZiDian.com 康熙字典體常用版"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Noto Serif TC Black"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Noto Serif TC Medium"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Noto Serif TC Black"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Noto Serif TC Black"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="KangXiZiDian.com 康熙字典體常用版"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
+      <name val="KangXiZiDian.com 康熙字典體常用版"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color rgb="FFC00000"/>
+      <name val="KangXiZiDian.com 康熙字典體常用版"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF00B0F0"/>
+      <color theme="7" tint="0.39997558519241921"/>
       <name val="LXGW WenKai Mono TC"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="9"/>
+      <name val="Noto Sans TC Black"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="LXGW WenKai Mono TC Bold"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="KangXiZiDian.com 康熙字典體常用版"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="LXGW WenKai Mono TC Bold"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FFC00000"/>
+      <name val="KangXiZiDian.com 康熙字典體常用版"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Serif TC Black"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Noto Serif TC Black"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <name val="LXGW WenKai Mono TC Bold"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="LXGW WenKai Mono TC Bold"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="LXGW WenKai TC Bold"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="LXGW WenKai Mono TC"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1726,8 +2097,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1797,11 +2192,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3"/>
+      </left>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1872,6 +2360,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1881,101 +2490,197 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="49" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2000,16 +2705,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>127000</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>194733</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>43</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>33866</xdr:rowOff>
+          <xdr:col>35</xdr:col>
+          <xdr:colOff>262467</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>237066</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -2024,7 +2729,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$1:$AQ$10" spid="_x0000_s1136"/>
+                  <a14:cameraTool cellRange="$B$2:$AP$11" spid="_x0000_s1571"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2038,7 +2743,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="177800" y="6189133"/>
+              <a:off x="127000" y="11514666"/>
               <a:ext cx="10388600" cy="3344333"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2061,6 +2766,125 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>127000</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>194733</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>41</xdr:col>
+          <xdr:colOff>245534</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>279400</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="圖片 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8159069B-E060-DB40-AD58-8C36FEABBD33}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$B$2:$AP$11" spid="_x0000_s6187"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="127000" y="9211733"/>
+              <a:ext cx="12149667" cy="3386667"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>175600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65A074FF-F26C-23EE-0D20-D82397A6F555}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="355600" y="11607800"/>
+          <a:ext cx="11351600" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2351,1079 +3175,1493 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="C1:AP23"/>
+  <dimension ref="B1:AU24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AG20" sqref="AG20"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AO7" sqref="AO7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="26"/>
   <cols>
-    <col min="1" max="2" width="2.33203125" style="1" customWidth="1"/>
-    <col min="3" max="37" width="3.33203125" style="1" customWidth="1"/>
-    <col min="38" max="44" width="2.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
+    <col min="2" max="43" width="3.83203125" style="1" customWidth="1"/>
+    <col min="44" max="44" width="3.83203125" style="24" customWidth="1"/>
     <col min="45" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:42" ht="16" thickBot="1"/>
-    <row r="2" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="C2" s="52">
+    <row r="1" spans="2:46" ht="27" thickBot="1"/>
+    <row r="2" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="B2" s="42">
         <v>1</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="52">
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="42">
         <v>2</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="43">
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="62">
         <v>3</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="43">
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="62">
         <v>4</v>
       </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="43">
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="62">
         <v>5</v>
       </c>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="43">
+      <c r="O2" s="63"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="62">
         <v>6</v>
       </c>
-      <c r="S2" s="44"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="43">
+      <c r="R2" s="63"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="62">
         <v>7</v>
       </c>
-      <c r="V2" s="44"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="40">
+      <c r="U2" s="63"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="45">
         <v>8</v>
       </c>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="24">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="65">
         <v>9</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="24">
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="65">
         <v>0</v>
       </c>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="36" t="s">
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="26"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-    </row>
-    <row r="3" spans="3:42" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="42" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="37" t="s">
+      <c r="AR2" s="24"/>
+    </row>
+    <row r="3" spans="2:46" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
+      <c r="B3" s="80" t="str">
+        <f xml:space="preserve"> E13</f>
+        <v>ㄅ</v>
+      </c>
+      <c r="C3" s="81"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="80" t="str">
+        <f>I13</f>
+        <v>ㄉ</v>
+      </c>
+      <c r="F3" s="81"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="90" t="s">
+        <v>386</v>
+      </c>
+      <c r="I3" s="88"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="90" t="s">
+        <v>387</v>
+      </c>
+      <c r="L3" s="88"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="90" t="s">
+        <v>388</v>
+      </c>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="90" t="s">
+        <v>389</v>
+      </c>
+      <c r="R3" s="88"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="87" t="s">
+        <v>390</v>
+      </c>
+      <c r="U3" s="88"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="77" t="str">
+        <f>E20</f>
+        <v>ㄚ</v>
+      </c>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="77" t="str">
+        <f>L20</f>
+        <v>ㄞ</v>
+      </c>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="77" t="str">
+        <f>S20</f>
+        <v>ㄢ</v>
+      </c>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="107" t="str">
+        <f>AC24</f>
+        <v>◌̃</v>
+      </c>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="79"/>
+      <c r="AR3" s="24"/>
+    </row>
+    <row r="4" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="C4" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="43"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="43"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="43"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="43"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" s="46"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="67"/>
+      <c r="AJ4" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="AK4" s="66"/>
+      <c r="AL4" s="67"/>
+      <c r="AM4" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="AN4" s="66"/>
+      <c r="AO4" s="67"/>
+      <c r="AR4" s="24"/>
+    </row>
+    <row r="5" spans="2:46" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
+      <c r="C5" s="80" t="str">
+        <f>G13</f>
+        <v>ㄆ</v>
+      </c>
+      <c r="D5" s="81"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="80" t="str">
+        <f xml:space="preserve"> J13</f>
+        <v>ㄊ</v>
+      </c>
+      <c r="G5" s="81"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="80" t="str">
+        <f>M13</f>
+        <v>ㄍ</v>
+      </c>
+      <c r="J5" s="81"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="80" t="str">
+        <f>R13</f>
+        <v>ㄐ</v>
+      </c>
+      <c r="M5" s="81"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="80" t="str">
+        <f>N13</f>
+        <v>ㆣ</v>
+      </c>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="80" t="str">
+        <f>V13</f>
+        <v>ㄗ</v>
+      </c>
+      <c r="S5" s="81"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="77" t="str">
+        <f>Y20</f>
+        <v>ㄧ</v>
+      </c>
+      <c r="V5" s="78"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="77" t="str">
+        <f>G20</f>
+        <v>ㆦ</v>
+      </c>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="77" t="str">
+        <f>J20</f>
+        <v>ㆤ</v>
+      </c>
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="79"/>
+      <c r="AD5" s="77" t="str">
+        <f>T20</f>
+        <v>ㄣ</v>
+      </c>
+      <c r="AE5" s="78"/>
+      <c r="AF5" s="79"/>
+      <c r="AG5" s="86"/>
+      <c r="AH5" s="84"/>
+      <c r="AI5" s="85"/>
+      <c r="AJ5" s="86"/>
+      <c r="AK5" s="84"/>
+      <c r="AL5" s="85"/>
+      <c r="AM5" s="86"/>
+      <c r="AN5" s="84"/>
+      <c r="AO5" s="85"/>
+      <c r="AR5" s="24"/>
+    </row>
+    <row r="6" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="C6" s="3"/>
+      <c r="D6" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="43"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="43"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" s="43"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6" s="46"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="65" t="s">
+        <v>287</v>
+      </c>
+      <c r="AF6" s="66"/>
+      <c r="AG6" s="67"/>
+      <c r="AH6" s="70" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI6" s="46"/>
+      <c r="AJ6" s="47"/>
+      <c r="AR6" s="24"/>
+    </row>
+    <row r="7" spans="2:46" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
+      <c r="D7" s="80" t="str">
+        <f>H13</f>
+        <v>ㄇ</v>
+      </c>
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="80" t="str">
+        <f>K13</f>
+        <v>ㄋ</v>
+      </c>
+      <c r="H7" s="81"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="80" t="str">
+        <f>O13</f>
+        <v>ㄎ</v>
+      </c>
+      <c r="K7" s="81"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="80" t="str">
+        <f>T13</f>
+        <v>ㄑ</v>
+      </c>
+      <c r="N7" s="81"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="80" t="str">
+        <f>P13</f>
+        <v>ㄫ</v>
+      </c>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="80" t="str">
+        <f>X13</f>
+        <v>ㄘ</v>
+      </c>
+      <c r="T7" s="81"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="77" t="str">
+        <f>AA20</f>
+        <v>ㄨ</v>
+      </c>
+      <c r="W7" s="78"/>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="77" t="str">
+        <f>I20</f>
+        <v>ㄜ</v>
+      </c>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="77" t="str">
+        <f>N20</f>
+        <v>ㄠ</v>
+      </c>
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="79"/>
+      <c r="AE7" s="77" t="str">
+        <f>U20</f>
+        <v>ㄤ</v>
+      </c>
+      <c r="AF7" s="78"/>
+      <c r="AG7" s="79"/>
+      <c r="AH7" s="83"/>
+      <c r="AI7" s="84"/>
+      <c r="AJ7" s="85"/>
+      <c r="AR7" s="24"/>
+    </row>
+    <row r="8" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="E8" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="43"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="43"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="43"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" s="43"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8" s="43"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="47"/>
+      <c r="AF8" s="65" t="s">
+        <v>288</v>
+      </c>
+      <c r="AG8" s="66"/>
+      <c r="AH8" s="67"/>
+      <c r="AR8" s="24"/>
+    </row>
+    <row r="9" spans="2:46" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
+      <c r="E9" s="80" t="str">
+        <f>F14</f>
+        <v>b</v>
+      </c>
+      <c r="F9" s="81"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="80" t="str">
+        <f>L13</f>
+        <v>ㄌ</v>
+      </c>
+      <c r="I9" s="81"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="80" t="str">
+        <f>Q13</f>
+        <v>ㄏ</v>
+      </c>
+      <c r="L9" s="81"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="80" t="str">
+        <f>U13</f>
+        <v>ㄒ</v>
+      </c>
+      <c r="O9" s="81"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="100" t="str">
+        <f xml:space="preserve"> S13 &amp; "/" &amp; W13</f>
+        <v>ㆢ/ㆡ</v>
+      </c>
+      <c r="R9" s="101"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="80" t="str">
+        <f>Y13</f>
+        <v>ㄙ</v>
+      </c>
+      <c r="U9" s="81"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="77" t="str">
+        <f>R20</f>
+        <v>ㆬ</v>
+      </c>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="104" t="str">
+        <f xml:space="preserve"> P20 &amp; "/" &amp; Q20</f>
+        <v>ㆰ/ㆱ</v>
+      </c>
+      <c r="AA9" s="105"/>
+      <c r="AB9" s="106"/>
+      <c r="AC9" s="77" t="str">
+        <f>V20</f>
+        <v>ㆲ</v>
+      </c>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="79"/>
+      <c r="AF9" s="77" t="str">
+        <f>X20</f>
+        <v>ㆭ</v>
+      </c>
+      <c r="AG9" s="78"/>
+      <c r="AH9" s="79"/>
+      <c r="AR9" s="24"/>
+    </row>
+    <row r="10" spans="2:46" s="23" customFormat="1" ht="17" customHeight="1">
+      <c r="AF10" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="39"/>
-    </row>
-    <row r="4" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="D4" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="53"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="53"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4" s="53"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="W4" s="31"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="24" t="s">
-        <v>360</v>
-      </c>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="AO4" s="25"/>
-      <c r="AP4" s="26"/>
-    </row>
-    <row r="5" spans="3:42" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="27" t="s">
-        <v>366</v>
-      </c>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="AL5" s="28"/>
-      <c r="AM5" s="29"/>
-      <c r="AN5" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="AO5" s="28"/>
-      <c r="AP5" s="29"/>
-    </row>
-    <row r="6" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="D6" s="3"/>
-      <c r="E6" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="53"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="53"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="53"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="U6" s="53"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="26"/>
-      <c r="AI6" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="AJ6" s="31"/>
-      <c r="AK6" s="32"/>
-    </row>
-    <row r="7" spans="3:42" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
-      <c r="E7" s="46"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="34"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="42" t="s">
-        <v>369</v>
-      </c>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="33"/>
-      <c r="AJ7" s="34"/>
-      <c r="AK7" s="35"/>
-    </row>
-    <row r="8" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="F8" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="53"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="S8" s="53"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="V8" s="53"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="32"/>
-      <c r="AD8" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="32"/>
-      <c r="AG8" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="AH8" s="25"/>
-      <c r="AI8" s="26"/>
-    </row>
-    <row r="9" spans="3:42" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="27" t="s">
+      <c r="AR10" s="24"/>
+    </row>
+    <row r="11" spans="2:46" s="23" customFormat="1" ht="17" customHeight="1">
+      <c r="AR11" s="24"/>
+    </row>
+    <row r="12" spans="2:46" ht="30" customHeight="1">
+      <c r="B12" s="97" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:46" ht="30" customHeight="1">
+      <c r="B13" s="71" t="s">
         <v>370</v>
       </c>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="29"/>
-    </row>
-    <row r="13" spans="3:42">
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="103" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="103" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="103" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="103" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="103" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="103" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="3:42">
-      <c r="D14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="1" t="s">
+      <c r="N13" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="O13" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="P13" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="Q13" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="R13" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="S13" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="T13" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="U13" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="V13" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="W13" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="X13" s="103" t="s">
         <v>93</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="Y13" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="AH13" s="109" t="s">
+        <v>401</v>
+      </c>
+      <c r="AI13" s="109"/>
+      <c r="AJ13" s="109"/>
+      <c r="AK13" s="110">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="110">
+        <v>2</v>
+      </c>
+      <c r="AM13" s="110">
+        <v>3</v>
+      </c>
+      <c r="AN13" s="110">
+        <v>4</v>
+      </c>
+      <c r="AO13" s="110">
+        <v>5</v>
+      </c>
+      <c r="AP13" s="110">
+        <v>6</v>
+      </c>
+      <c r="AQ13" s="110">
+        <v>7</v>
+      </c>
+      <c r="AR13" s="110">
+        <v>8</v>
+      </c>
+      <c r="AT13" s="24"/>
+    </row>
+    <row r="14" spans="2:46" ht="30" customHeight="1">
+      <c r="B14" s="71" t="s">
+        <v>397</v>
+      </c>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="91" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="91" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="91" t="s">
+        <v>347</v>
+      </c>
+      <c r="H14" s="91" t="s">
+        <v>338</v>
+      </c>
+      <c r="I14" s="91" t="s">
+        <v>167</v>
+      </c>
+      <c r="J14" s="91" t="s">
+        <v>348</v>
+      </c>
+      <c r="K14" s="91" t="s">
+        <v>349</v>
+      </c>
+      <c r="L14" s="91" t="s">
+        <v>350</v>
+      </c>
+      <c r="M14" s="91" t="s">
+        <v>168</v>
+      </c>
+      <c r="N14" s="91" t="s">
+        <v>169</v>
+      </c>
+      <c r="O14" s="91" t="s">
+        <v>351</v>
+      </c>
+      <c r="P14" s="91" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q14" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="R14" s="91" t="s">
+        <v>352</v>
+      </c>
+      <c r="S14" s="91" t="s">
+        <v>353</v>
+      </c>
+      <c r="T14" s="91" t="s">
+        <v>354</v>
+      </c>
+      <c r="U14" s="91" t="s">
+        <v>175</v>
+      </c>
+      <c r="V14" s="91" t="s">
+        <v>355</v>
+      </c>
+      <c r="W14" s="91" t="s">
+        <v>353</v>
+      </c>
+      <c r="X14" s="91" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y14" s="91" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z14" s="16"/>
+      <c r="AH14" s="109" t="s">
+        <v>402</v>
+      </c>
+      <c r="AI14" s="109"/>
+      <c r="AJ14" s="109"/>
+      <c r="AK14" s="111" t="s">
+        <v>371</v>
+      </c>
+      <c r="AL14" s="111" t="s">
+        <v>373</v>
+      </c>
+      <c r="AM14" s="116" t="s">
+        <v>374</v>
+      </c>
+      <c r="AN14" s="117" t="s">
+        <v>414</v>
+      </c>
+      <c r="AO14" s="111" t="s">
+        <v>413</v>
+      </c>
+      <c r="AP14" s="117" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ14" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="AR14" s="118" t="s">
+        <v>376</v>
+      </c>
+      <c r="AT14" s="24"/>
+    </row>
+    <row r="15" spans="2:46" ht="30" customHeight="1">
+      <c r="B15" s="71" t="s">
+        <v>378</v>
+      </c>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="92">
+        <v>1</v>
+      </c>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="92"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="92"/>
+      <c r="V15" s="92"/>
+      <c r="W15" s="92"/>
+      <c r="X15" s="92"/>
+      <c r="Y15" s="92"/>
+      <c r="Z15" s="16"/>
+      <c r="AH15" s="109" t="s">
+        <v>404</v>
+      </c>
+      <c r="AI15" s="109"/>
+      <c r="AJ15" s="109"/>
+      <c r="AK15" s="112" t="s">
+        <v>405</v>
+      </c>
+      <c r="AL15" s="112" t="s">
+        <v>406</v>
+      </c>
+      <c r="AM15" s="112" t="s">
+        <v>407</v>
+      </c>
+      <c r="AN15" s="113" t="s">
+        <v>408</v>
+      </c>
+      <c r="AO15" s="112" t="s">
+        <v>409</v>
+      </c>
+      <c r="AP15" s="112" t="s">
+        <v>410</v>
+      </c>
+      <c r="AQ15" s="112" t="s">
+        <v>411</v>
+      </c>
+      <c r="AR15" s="113" t="s">
+        <v>412</v>
+      </c>
+      <c r="AT15" s="24"/>
+    </row>
+    <row r="16" spans="2:46" ht="30" customHeight="1">
+      <c r="B16" s="71" t="s">
+        <v>391</v>
+      </c>
+      <c r="C16" s="72"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="92" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="92" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" s="92" t="s">
+        <v>297</v>
+      </c>
+      <c r="H16" s="92" t="s">
+        <v>298</v>
+      </c>
+      <c r="I16" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" s="92" t="s">
+        <v>299</v>
+      </c>
+      <c r="K16" s="92" t="s">
+        <v>300</v>
+      </c>
+      <c r="L16" s="92" t="s">
+        <v>301</v>
+      </c>
+      <c r="M16" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="N16" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="O16" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="P16" s="92" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q16" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="R16" s="92" t="s">
+        <v>294</v>
+      </c>
+      <c r="S16" s="92" t="s">
+        <v>295</v>
+      </c>
+      <c r="T16" s="92" t="s">
+        <v>296</v>
+      </c>
+      <c r="U16" s="92" t="s">
+        <v>175</v>
+      </c>
+      <c r="V16" s="92" t="s">
+        <v>304</v>
+      </c>
+      <c r="W16" s="92" t="s">
+        <v>305</v>
+      </c>
+      <c r="X16" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y16" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z16" s="16"/>
+      <c r="AH16" s="109" t="s">
+        <v>403</v>
+      </c>
+      <c r="AI16" s="109"/>
+      <c r="AJ16" s="109"/>
+      <c r="AK16" s="114" t="s">
+        <v>396</v>
+      </c>
+      <c r="AL16" s="114" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM16" s="114" t="s">
+        <v>386</v>
+      </c>
+      <c r="AN16" s="115" t="s">
+        <v>393</v>
+      </c>
+      <c r="AO16" s="114" t="s">
+        <v>389</v>
+      </c>
+      <c r="AP16" s="114" t="s">
+        <v>394</v>
+      </c>
+      <c r="AQ16" s="114" t="s">
+        <v>388</v>
+      </c>
+      <c r="AR16" s="115" t="s">
+        <v>395</v>
+      </c>
+      <c r="AT16" s="24"/>
+    </row>
+    <row r="17" spans="2:47" ht="30" customHeight="1">
+      <c r="B17" s="71" t="s">
+        <v>392</v>
+      </c>
+      <c r="C17" s="72"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="F17" s="93" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="15" spans="3:42" ht="20">
-      <c r="D15" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="G15" s="20" t="s">
+      <c r="G17" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="93" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="93" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="N17" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="O17" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" s="93" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q17" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="R17" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="S17" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="T17" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="U17" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="V17" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="W17" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="X17" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y17" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH17" s="109" t="s">
+        <v>423</v>
+      </c>
+      <c r="AI17" s="109"/>
+      <c r="AJ17" s="109"/>
+      <c r="AK17" s="119" t="s">
+        <v>415</v>
+      </c>
+      <c r="AL17" s="119" t="s">
+        <v>416</v>
+      </c>
+      <c r="AM17" s="119" t="s">
+        <v>417</v>
+      </c>
+      <c r="AN17" s="119" t="s">
+        <v>418</v>
+      </c>
+      <c r="AO17" s="119" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP17" s="119" t="s">
+        <v>421</v>
+      </c>
+      <c r="AQ17" s="119" t="s">
+        <v>422</v>
+      </c>
+      <c r="AR17" s="119" t="s">
+        <v>419</v>
+      </c>
+      <c r="AU17" s="24"/>
+    </row>
+    <row r="18" spans="2:47" ht="30" customHeight="1">
+      <c r="AR18" s="1"/>
+      <c r="AU18" s="24"/>
+    </row>
+    <row r="19" spans="2:47" ht="30" customHeight="1">
+      <c r="B19" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR19" s="1"/>
+      <c r="AT19" s="24"/>
+    </row>
+    <row r="20" spans="2:47" ht="30" customHeight="1">
+      <c r="B20" s="71" t="s">
+        <v>370</v>
+      </c>
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="103" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="103" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="103" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="103" t="s">
+        <v>120</v>
+      </c>
+      <c r="I20" s="103" t="s">
+        <v>121</v>
+      </c>
+      <c r="J20" s="103" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="103" t="s">
+        <v>123</v>
+      </c>
+      <c r="L20" s="103" t="s">
+        <v>124</v>
+      </c>
+      <c r="M20" s="103" t="s">
+        <v>125</v>
+      </c>
+      <c r="N20" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="O20" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="P20" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q20" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="R20" s="103" t="s">
+        <v>130</v>
+      </c>
+      <c r="S20" s="103" t="s">
+        <v>131</v>
+      </c>
+      <c r="T20" s="103" t="s">
+        <v>132</v>
+      </c>
+      <c r="U20" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="V20" s="103" t="s">
+        <v>398</v>
+      </c>
+      <c r="W20" s="103" t="s">
+        <v>135</v>
+      </c>
+      <c r="X20" s="103" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y20" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z20" s="103" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA20" s="103" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB20" s="103" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC20" s="103"/>
+      <c r="AR20" s="1"/>
+      <c r="AT20" s="24"/>
+    </row>
+    <row r="21" spans="2:47" ht="30" customHeight="1">
+      <c r="B21" s="74" t="s">
+        <v>377</v>
+      </c>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="94" t="s">
+        <v>221</v>
+      </c>
+      <c r="F21" s="94" t="s">
+        <v>328</v>
+      </c>
+      <c r="G21" s="94" t="s">
+        <v>329</v>
+      </c>
+      <c r="H21" s="94" t="s">
+        <v>330</v>
+      </c>
+      <c r="I21" s="94" t="s">
+        <v>225</v>
+      </c>
+      <c r="J21" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="K21" s="94" t="s">
+        <v>331</v>
+      </c>
+      <c r="L21" s="94" t="s">
+        <v>332</v>
+      </c>
+      <c r="M21" s="94" t="s">
+        <v>333</v>
+      </c>
+      <c r="N21" s="94" t="s">
+        <v>334</v>
+      </c>
+      <c r="O21" s="94" t="s">
+        <v>335</v>
+      </c>
+      <c r="P21" s="94" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q21" s="94" t="s">
+        <v>337</v>
+      </c>
+      <c r="R21" s="94" t="s">
+        <v>338</v>
+      </c>
+      <c r="S21" s="94" t="s">
+        <v>339</v>
+      </c>
+      <c r="T21" s="94" t="s">
         <v>340</v>
       </c>
-      <c r="H15" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="O15" s="20" t="s">
+      <c r="U21" s="94" t="s">
+        <v>341</v>
+      </c>
+      <c r="V21" s="94" t="s">
+        <v>342</v>
+      </c>
+      <c r="W21" s="94" t="s">
+        <v>343</v>
+      </c>
+      <c r="X21" s="94" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y21" s="94" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z21" s="94" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA21" s="94" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB21" s="94" t="s">
         <v>346</v>
       </c>
-      <c r="P15" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q15" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="R15" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="S15" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="T15" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="U15" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="V15" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="W15" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="X15" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y15" s="16"/>
-    </row>
-    <row r="16" spans="3:42" ht="20">
-      <c r="D16" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="L16" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="M16" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="N16" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="O16" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="P16" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q16" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="R16" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="S16" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="T16" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="U16" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="V16" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="W16" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="X16" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y16" s="16"/>
-    </row>
-    <row r="17" spans="4:27">
-      <c r="D17" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="L17" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="M17" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="N17" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="O17" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="P17" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q17" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="R17" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="S17" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="T17" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="U17" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="V17" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="W17" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="X17" s="21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="4:27">
-      <c r="D19" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="4:27">
-      <c r="D20" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z20" s="1" t="s">
+      <c r="AC21" s="108" t="s">
+        <v>399</v>
+      </c>
+      <c r="AR21" s="1"/>
+      <c r="AT21" s="24"/>
+    </row>
+    <row r="22" spans="2:47" ht="30" customHeight="1">
+      <c r="B22" s="74" t="s">
+        <v>378</v>
+      </c>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="94"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="94"/>
+      <c r="Y22" s="94"/>
+      <c r="Z22" s="94"/>
+      <c r="AA22" s="94"/>
+      <c r="AB22" s="94"/>
+      <c r="AC22" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR22" s="1"/>
+      <c r="AT22" s="24"/>
+    </row>
+    <row r="23" spans="2:47" ht="30" customHeight="1">
+      <c r="B23" s="74" t="s">
+        <v>391</v>
+      </c>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="95" t="s">
+        <v>221</v>
+      </c>
+      <c r="F23" s="95" t="s">
+        <v>309</v>
+      </c>
+      <c r="G23" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="H23" s="95" t="s">
+        <v>310</v>
+      </c>
+      <c r="I23" s="95" t="s">
+        <v>311</v>
+      </c>
+      <c r="J23" s="95" t="s">
+        <v>226</v>
+      </c>
+      <c r="K23" s="95" t="s">
+        <v>312</v>
+      </c>
+      <c r="L23" s="95" t="s">
+        <v>313</v>
+      </c>
+      <c r="M23" s="95" t="s">
+        <v>314</v>
+      </c>
+      <c r="N23" s="95" t="s">
+        <v>315</v>
+      </c>
+      <c r="O23" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="P23" s="95" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q23" s="95" t="s">
+        <v>318</v>
+      </c>
+      <c r="R23" s="95" t="s">
+        <v>319</v>
+      </c>
+      <c r="S23" s="95" t="s">
+        <v>320</v>
+      </c>
+      <c r="T23" s="95" t="s">
+        <v>321</v>
+      </c>
+      <c r="U23" s="95" t="s">
+        <v>322</v>
+      </c>
+      <c r="V23" s="95" t="s">
+        <v>323</v>
+      </c>
+      <c r="W23" s="95" t="s">
+        <v>324</v>
+      </c>
+      <c r="X23" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y23" s="95" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z23" s="95" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA23" s="95" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB23" s="95" t="s">
+        <v>327</v>
+      </c>
+      <c r="AC23" s="95"/>
+      <c r="AR23" s="1"/>
+      <c r="AT23" s="24"/>
+    </row>
+    <row r="24" spans="2:47" ht="30" customHeight="1">
+      <c r="B24" s="74" t="s">
+        <v>392</v>
+      </c>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="AA20" s="1" t="s">
+      <c r="F24" s="96" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="21" spans="4:27">
-      <c r="D21" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="M21" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="N21" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="O21" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="P21" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q21" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="R21" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="S21" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="T21" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="U21" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="V21" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="W21" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="X21" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y21" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="Z21" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA21" s="19" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="22" spans="4:27">
-      <c r="D22" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="L22" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="M22" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="N22" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="O22" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="P22" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q22" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="R22" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="S22" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="T22" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="U22" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="V22" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="W22" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="X22" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y22" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="Z22" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA22" s="17" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="23" spans="4:27">
-      <c r="D23" s="22" t="s">
+      <c r="G24" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="H24" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="I24" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="J24" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="K24" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="L24" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="J23" s="22" t="s">
+      <c r="M24" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="K23" s="22" t="s">
+      <c r="N24" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="L23" s="22" t="s">
+      <c r="O24" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="M23" s="22" t="s">
+      <c r="P24" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="N23" s="22" t="s">
+      <c r="Q24" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="O23" s="22" t="s">
+      <c r="R24" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="P23" s="22" t="s">
+      <c r="S24" s="96" t="s">
         <v>155</v>
       </c>
-      <c r="Q23" s="22" t="s">
+      <c r="T24" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="R23" s="22" t="s">
+      <c r="U24" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="S23" s="22" t="s">
+      <c r="V24" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="T23" s="22" t="s">
+      <c r="W24" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="U23" s="22" t="s">
+      <c r="X24" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="V23" s="22" t="s">
+      <c r="Y24" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="W23" s="22" t="s">
+      <c r="Z24" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="X23" s="22" t="s">
+      <c r="AA24" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="Y23" s="22" t="s">
+      <c r="AB24" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="Z23" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA23" s="22" t="s">
-        <v>166</v>
-      </c>
+      <c r="AC24" s="96" t="s">
+        <v>400</v>
+      </c>
+      <c r="AR24" s="1"/>
+      <c r="AU24" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="AG9:AI9"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="AI7:AK7"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AN5:AP5"/>
-    <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="AH5:AJ5"/>
-    <mergeCell ref="AK5:AM5"/>
+  <mergeCells count="105">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="AM4:AO4"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="AG4:AI4"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
@@ -3432,10 +4670,3484 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDC21CF-2121-504C-A275-7B846396F381}">
+  <dimension ref="B1:AU24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20:AB24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="26"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
+    <col min="2" max="43" width="3.83203125" style="1" customWidth="1"/>
+    <col min="44" max="44" width="3.83203125" style="24" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:46" ht="27" thickBot="1"/>
+    <row r="2" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="B2" s="42">
+        <v>1</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="42">
+        <v>2</v>
+      </c>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="62">
+        <v>3</v>
+      </c>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="62">
+        <v>4</v>
+      </c>
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="62">
+        <v>5</v>
+      </c>
+      <c r="O2" s="63"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="62">
+        <v>6</v>
+      </c>
+      <c r="R2" s="63"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="62">
+        <v>7</v>
+      </c>
+      <c r="U2" s="63"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="45">
+        <v>8</v>
+      </c>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="65">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="65">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AR2" s="24"/>
+    </row>
+    <row r="3" spans="2:46" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
+      <c r="B3" s="80"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="86" t="str">
+        <f xml:space="preserve"> AO15 &amp; "（" &amp; AO17 &amp; "）"</f>
+        <v>陽平（â）</v>
+      </c>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="86" t="str">
+        <f xml:space="preserve"> AP15 &amp; "（" &amp; AP17 &amp; "）"</f>
+        <v>陽上（ǎ）</v>
+      </c>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="85"/>
+      <c r="AF3" s="86" t="str">
+        <f xml:space="preserve"> AQ15 &amp; "（" &amp; AQ17 &amp; "）"</f>
+        <v>陽去（ā）</v>
+      </c>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="85"/>
+      <c r="AR3" s="24"/>
+    </row>
+    <row r="4" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="C4" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="43"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="43"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="43"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="43"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" s="46"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="67"/>
+      <c r="AJ4" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="AK4" s="66"/>
+      <c r="AL4" s="67"/>
+      <c r="AM4" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="AN4" s="66"/>
+      <c r="AO4" s="67"/>
+      <c r="AR4" s="24"/>
+    </row>
+    <row r="5" spans="2:46" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
+      <c r="C5" s="80"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="79"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="78"/>
+      <c r="AF5" s="79"/>
+      <c r="AG5" s="86" t="str">
+        <f xml:space="preserve"> AK15 &amp; "（" &amp; AK17 &amp; "）"</f>
+        <v>陰平（a）</v>
+      </c>
+      <c r="AH5" s="84"/>
+      <c r="AI5" s="85"/>
+      <c r="AJ5" s="86" t="str">
+        <f xml:space="preserve"> AN15 &amp; "（" &amp; AN17 &amp; "）"</f>
+        <v>陰入（ah）</v>
+      </c>
+      <c r="AK5" s="84"/>
+      <c r="AL5" s="85"/>
+      <c r="AM5" s="86" t="str">
+        <f xml:space="preserve"> AM15 &amp; "（" &amp; AM17 &amp; "）"</f>
+        <v>陰去（à）</v>
+      </c>
+      <c r="AN5" s="84"/>
+      <c r="AO5" s="85"/>
+      <c r="AR5" s="24"/>
+    </row>
+    <row r="6" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="C6" s="3"/>
+      <c r="D6" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="43"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="43"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" s="43"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6" s="46"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="65" t="s">
+        <v>287</v>
+      </c>
+      <c r="AF6" s="66"/>
+      <c r="AG6" s="67"/>
+      <c r="AH6" s="70" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI6" s="46"/>
+      <c r="AJ6" s="47"/>
+      <c r="AR6" s="24"/>
+    </row>
+    <row r="7" spans="2:46" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
+      <c r="D7" s="80"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="79"/>
+      <c r="AE7" s="86" t="str">
+        <f xml:space="preserve"> AR15 &amp; "（" &amp; AR17 &amp; "）"</f>
+        <v>陽入（a̍h）</v>
+      </c>
+      <c r="AF7" s="84"/>
+      <c r="AG7" s="85"/>
+      <c r="AH7" s="122" t="str">
+        <f xml:space="preserve"> AR15 &amp; "（" &amp; AR17 &amp; "）"</f>
+        <v>陽入（a̍h）</v>
+      </c>
+      <c r="AI7" s="120"/>
+      <c r="AJ7" s="121"/>
+      <c r="AR7" s="24"/>
+    </row>
+    <row r="8" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="E8" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="43"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="43"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="43"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" s="43"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8" s="43"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="47"/>
+      <c r="AF8" s="65" t="s">
+        <v>288</v>
+      </c>
+      <c r="AG8" s="66"/>
+      <c r="AH8" s="67"/>
+      <c r="AR8" s="24"/>
+    </row>
+    <row r="9" spans="2:46" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
+      <c r="E9" s="80"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="100"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="81"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="104"/>
+      <c r="AA9" s="105"/>
+      <c r="AB9" s="106"/>
+      <c r="AC9" s="77"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="79"/>
+      <c r="AF9" s="86" t="str">
+        <f xml:space="preserve"> AL15 &amp; "（" &amp; AL17 &amp; "）"</f>
+        <v>陰上（á）</v>
+      </c>
+      <c r="AG9" s="84"/>
+      <c r="AH9" s="85"/>
+      <c r="AR9" s="24"/>
+    </row>
+    <row r="10" spans="2:46" s="23" customFormat="1" ht="17" customHeight="1">
+      <c r="AR10" s="24"/>
+    </row>
+    <row r="11" spans="2:46" s="23" customFormat="1" ht="17" customHeight="1">
+      <c r="AR11" s="24"/>
+    </row>
+    <row r="12" spans="2:46" ht="30" customHeight="1">
+      <c r="B12" s="97" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:46" ht="30" customHeight="1">
+      <c r="B13" s="71" t="s">
+        <v>370</v>
+      </c>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="103"/>
+      <c r="S13" s="103"/>
+      <c r="T13" s="103"/>
+      <c r="U13" s="103"/>
+      <c r="V13" s="103"/>
+      <c r="W13" s="103"/>
+      <c r="X13" s="103"/>
+      <c r="Y13" s="103"/>
+      <c r="AH13" s="109" t="s">
+        <v>401</v>
+      </c>
+      <c r="AI13" s="109"/>
+      <c r="AJ13" s="109"/>
+      <c r="AK13" s="110">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="110">
+        <v>2</v>
+      </c>
+      <c r="AM13" s="110">
+        <v>3</v>
+      </c>
+      <c r="AN13" s="110">
+        <v>4</v>
+      </c>
+      <c r="AO13" s="110">
+        <v>5</v>
+      </c>
+      <c r="AP13" s="110">
+        <v>6</v>
+      </c>
+      <c r="AQ13" s="110">
+        <v>7</v>
+      </c>
+      <c r="AR13" s="110">
+        <v>8</v>
+      </c>
+      <c r="AT13" s="24"/>
+    </row>
+    <row r="14" spans="2:46" ht="30" customHeight="1">
+      <c r="B14" s="71" t="s">
+        <v>397</v>
+      </c>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="91"/>
+      <c r="S14" s="91"/>
+      <c r="T14" s="91"/>
+      <c r="U14" s="91"/>
+      <c r="V14" s="91"/>
+      <c r="W14" s="91"/>
+      <c r="X14" s="91"/>
+      <c r="Y14" s="91"/>
+      <c r="Z14" s="16"/>
+      <c r="AH14" s="109" t="s">
+        <v>402</v>
+      </c>
+      <c r="AI14" s="109"/>
+      <c r="AJ14" s="109"/>
+      <c r="AK14" s="111" t="s">
+        <v>371</v>
+      </c>
+      <c r="AL14" s="111" t="s">
+        <v>373</v>
+      </c>
+      <c r="AM14" s="116" t="s">
+        <v>374</v>
+      </c>
+      <c r="AN14" s="117" t="s">
+        <v>414</v>
+      </c>
+      <c r="AO14" s="111" t="s">
+        <v>413</v>
+      </c>
+      <c r="AP14" s="117" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ14" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="AR14" s="118" t="s">
+        <v>376</v>
+      </c>
+      <c r="AT14" s="24"/>
+    </row>
+    <row r="15" spans="2:46" ht="30" customHeight="1">
+      <c r="B15" s="71" t="s">
+        <v>378</v>
+      </c>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="92"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="92"/>
+      <c r="V15" s="92"/>
+      <c r="W15" s="92"/>
+      <c r="X15" s="92"/>
+      <c r="Y15" s="92"/>
+      <c r="Z15" s="16"/>
+      <c r="AH15" s="109" t="s">
+        <v>404</v>
+      </c>
+      <c r="AI15" s="109"/>
+      <c r="AJ15" s="109"/>
+      <c r="AK15" s="112" t="s">
+        <v>405</v>
+      </c>
+      <c r="AL15" s="112" t="s">
+        <v>406</v>
+      </c>
+      <c r="AM15" s="112" t="s">
+        <v>407</v>
+      </c>
+      <c r="AN15" s="113" t="s">
+        <v>408</v>
+      </c>
+      <c r="AO15" s="112" t="s">
+        <v>409</v>
+      </c>
+      <c r="AP15" s="112" t="s">
+        <v>410</v>
+      </c>
+      <c r="AQ15" s="112" t="s">
+        <v>411</v>
+      </c>
+      <c r="AR15" s="113" t="s">
+        <v>412</v>
+      </c>
+      <c r="AT15" s="24"/>
+    </row>
+    <row r="16" spans="2:46" ht="30" customHeight="1">
+      <c r="B16" s="71" t="s">
+        <v>391</v>
+      </c>
+      <c r="C16" s="72"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="92"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="92"/>
+      <c r="W16" s="92"/>
+      <c r="X16" s="92"/>
+      <c r="Y16" s="92"/>
+      <c r="Z16" s="16"/>
+      <c r="AH16" s="109" t="s">
+        <v>403</v>
+      </c>
+      <c r="AI16" s="109"/>
+      <c r="AJ16" s="109"/>
+      <c r="AK16" s="114" t="s">
+        <v>396</v>
+      </c>
+      <c r="AL16" s="114" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM16" s="114" t="s">
+        <v>386</v>
+      </c>
+      <c r="AN16" s="115" t="s">
+        <v>393</v>
+      </c>
+      <c r="AO16" s="114" t="s">
+        <v>389</v>
+      </c>
+      <c r="AP16" s="114" t="s">
+        <v>394</v>
+      </c>
+      <c r="AQ16" s="114" t="s">
+        <v>388</v>
+      </c>
+      <c r="AR16" s="115" t="s">
+        <v>395</v>
+      </c>
+      <c r="AT16" s="24"/>
+    </row>
+    <row r="17" spans="2:47" ht="30" customHeight="1">
+      <c r="B17" s="71" t="s">
+        <v>392</v>
+      </c>
+      <c r="C17" s="72"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="93"/>
+      <c r="R17" s="93"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="93"/>
+      <c r="U17" s="93"/>
+      <c r="V17" s="93"/>
+      <c r="W17" s="93"/>
+      <c r="X17" s="93"/>
+      <c r="Y17" s="93"/>
+      <c r="AH17" s="109" t="s">
+        <v>423</v>
+      </c>
+      <c r="AI17" s="109"/>
+      <c r="AJ17" s="109"/>
+      <c r="AK17" s="119" t="s">
+        <v>415</v>
+      </c>
+      <c r="AL17" s="119" t="s">
+        <v>416</v>
+      </c>
+      <c r="AM17" s="119" t="s">
+        <v>417</v>
+      </c>
+      <c r="AN17" s="119" t="s">
+        <v>418</v>
+      </c>
+      <c r="AO17" s="119" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP17" s="119" t="s">
+        <v>421</v>
+      </c>
+      <c r="AQ17" s="119" t="s">
+        <v>422</v>
+      </c>
+      <c r="AR17" s="119" t="s">
+        <v>419</v>
+      </c>
+      <c r="AU17" s="24"/>
+    </row>
+    <row r="18" spans="2:47" ht="30" customHeight="1">
+      <c r="AR18" s="1"/>
+      <c r="AU18" s="24"/>
+    </row>
+    <row r="19" spans="2:47" ht="30" customHeight="1">
+      <c r="B19" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR19" s="1"/>
+      <c r="AT19" s="24"/>
+    </row>
+    <row r="20" spans="2:47" ht="30" customHeight="1">
+      <c r="B20" s="71" t="s">
+        <v>370</v>
+      </c>
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="103"/>
+      <c r="P20" s="103"/>
+      <c r="Q20" s="103"/>
+      <c r="R20" s="103"/>
+      <c r="S20" s="103"/>
+      <c r="T20" s="103"/>
+      <c r="U20" s="103"/>
+      <c r="V20" s="103"/>
+      <c r="W20" s="103"/>
+      <c r="X20" s="103"/>
+      <c r="Y20" s="103"/>
+      <c r="Z20" s="103"/>
+      <c r="AA20" s="103"/>
+      <c r="AB20" s="103"/>
+      <c r="AC20" s="103"/>
+      <c r="AR20" s="1"/>
+      <c r="AT20" s="24"/>
+    </row>
+    <row r="21" spans="2:47" ht="30" customHeight="1">
+      <c r="B21" s="74" t="s">
+        <v>377</v>
+      </c>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="94"/>
+      <c r="T21" s="94"/>
+      <c r="U21" s="94"/>
+      <c r="V21" s="94"/>
+      <c r="W21" s="94"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="94"/>
+      <c r="Z21" s="94"/>
+      <c r="AA21" s="94"/>
+      <c r="AB21" s="94"/>
+      <c r="AC21" s="108" t="s">
+        <v>399</v>
+      </c>
+      <c r="AR21" s="1"/>
+      <c r="AT21" s="24"/>
+    </row>
+    <row r="22" spans="2:47" ht="30" customHeight="1">
+      <c r="B22" s="74" t="s">
+        <v>378</v>
+      </c>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="94"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="94"/>
+      <c r="Y22" s="94"/>
+      <c r="Z22" s="94"/>
+      <c r="AA22" s="94"/>
+      <c r="AB22" s="94"/>
+      <c r="AC22" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR22" s="1"/>
+      <c r="AT22" s="24"/>
+    </row>
+    <row r="23" spans="2:47" ht="30" customHeight="1">
+      <c r="B23" s="74" t="s">
+        <v>391</v>
+      </c>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="95"/>
+      <c r="U23" s="95"/>
+      <c r="V23" s="95"/>
+      <c r="W23" s="95"/>
+      <c r="X23" s="95"/>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="95"/>
+      <c r="AA23" s="95"/>
+      <c r="AB23" s="95"/>
+      <c r="AC23" s="95"/>
+      <c r="AR23" s="1"/>
+      <c r="AT23" s="24"/>
+    </row>
+    <row r="24" spans="2:47" ht="30" customHeight="1">
+      <c r="B24" s="74" t="s">
+        <v>392</v>
+      </c>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="96"/>
+      <c r="R24" s="96"/>
+      <c r="S24" s="96"/>
+      <c r="T24" s="96"/>
+      <c r="U24" s="96"/>
+      <c r="V24" s="96"/>
+      <c r="W24" s="96"/>
+      <c r="X24" s="96"/>
+      <c r="Y24" s="96"/>
+      <c r="Z24" s="96"/>
+      <c r="AA24" s="96"/>
+      <c r="AB24" s="96"/>
+      <c r="AC24" s="96" t="s">
+        <v>400</v>
+      </c>
+      <c r="AR24" s="1"/>
+      <c r="AU24" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="105">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="AM4:AO4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AG4:AI4"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+  </mergeCells>
+  <phoneticPr fontId="30" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB406015-C86B-0E4D-94A3-30437A254441}">
+  <dimension ref="B1:AR33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AR9" sqref="AR9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="26"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
+    <col min="2" max="43" width="3.6640625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="9" style="24"/>
+    <col min="45" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:44" ht="27" thickBot="1"/>
+    <row r="2" spans="2:44" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="B2" s="42">
+        <v>1</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="42">
+        <v>2</v>
+      </c>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="62">
+        <v>3</v>
+      </c>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="62">
+        <v>4</v>
+      </c>
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="62">
+        <v>5</v>
+      </c>
+      <c r="O2" s="63"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="62">
+        <v>6</v>
+      </c>
+      <c r="R2" s="63"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="62">
+        <v>7</v>
+      </c>
+      <c r="U2" s="63"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="45">
+        <v>8</v>
+      </c>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="65">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="65">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AR2" s="24"/>
+    </row>
+    <row r="3" spans="2:44" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
+      <c r="B3" s="80" t="str">
+        <f>E13</f>
+        <v>ㄅ</v>
+      </c>
+      <c r="C3" s="81"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="80" t="str">
+        <f>H13</f>
+        <v>ㄉ</v>
+      </c>
+      <c r="F3" s="81"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="77" t="str">
+        <f>C30</f>
+        <v>ㄚ</v>
+      </c>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="59" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="59" t="s">
+        <v>361</v>
+      </c>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="69" t="s">
+        <v>383</v>
+      </c>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="61"/>
+      <c r="AR3" s="24"/>
+    </row>
+    <row r="4" spans="2:44" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="C4" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="43"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="43"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="43"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="43"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" s="46"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="67"/>
+      <c r="AJ4" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="AK4" s="66"/>
+      <c r="AL4" s="67"/>
+      <c r="AM4" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="AN4" s="66"/>
+      <c r="AO4" s="67"/>
+      <c r="AR4" s="24"/>
+    </row>
+    <row r="5" spans="2:44" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
+      <c r="C5" s="80" t="str">
+        <f>F13</f>
+        <v>ㄆ</v>
+      </c>
+      <c r="D5" s="81"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="80" t="str">
+        <f>I13</f>
+        <v>ㄊ</v>
+      </c>
+      <c r="G5" s="81"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="80" t="str">
+        <f>K13</f>
+        <v>ㄍ</v>
+      </c>
+      <c r="J5" s="81"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="80" t="str">
+        <f>P24</f>
+        <v>ㄐ</v>
+      </c>
+      <c r="M5" s="81"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="80" t="str">
+        <f>N13</f>
+        <v>ㄗ</v>
+      </c>
+      <c r="S5" s="81"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="77" t="str">
+        <f>S13</f>
+        <v>ㄧ</v>
+      </c>
+      <c r="V5" s="78"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="77" t="str">
+        <f>V13</f>
+        <v>ㆦ</v>
+      </c>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="77" t="str">
+        <f xml:space="preserve"> AB13</f>
+        <v>ㄣ</v>
+      </c>
+      <c r="AE5" s="78"/>
+      <c r="AF5" s="79"/>
+      <c r="AG5" s="86" t="s">
+        <v>362</v>
+      </c>
+      <c r="AH5" s="84"/>
+      <c r="AI5" s="85"/>
+      <c r="AJ5" s="86" t="s">
+        <v>365</v>
+      </c>
+      <c r="AK5" s="84"/>
+      <c r="AL5" s="85"/>
+      <c r="AM5" s="86" t="s">
+        <v>364</v>
+      </c>
+      <c r="AN5" s="84"/>
+      <c r="AO5" s="85"/>
+      <c r="AR5" s="24"/>
+    </row>
+    <row r="6" spans="2:44" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="C6" s="3"/>
+      <c r="D6" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="43"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="43"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" s="43"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6" s="46"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="65" t="s">
+        <v>287</v>
+      </c>
+      <c r="AF6" s="66"/>
+      <c r="AG6" s="67"/>
+      <c r="AH6" s="70" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI6" s="46"/>
+      <c r="AJ6" s="47"/>
+      <c r="AR6" s="24"/>
+    </row>
+    <row r="7" spans="2:44" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
+      <c r="D7" s="80" t="str">
+        <f>F24</f>
+        <v>ㄇ</v>
+      </c>
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="80" t="str">
+        <f>I24</f>
+        <v>ㄋ</v>
+      </c>
+      <c r="H7" s="81"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="80" t="str">
+        <f>L13</f>
+        <v>ㄎ</v>
+      </c>
+      <c r="K7" s="81"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="80" t="str">
+        <f>R24</f>
+        <v>ㄑ</v>
+      </c>
+      <c r="N7" s="81"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="80" t="str">
+        <f>O13</f>
+        <v>ㄘ</v>
+      </c>
+      <c r="T7" s="81"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="77" t="str">
+        <f>T13</f>
+        <v>ㄨ</v>
+      </c>
+      <c r="W7" s="78"/>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="77" t="str">
+        <f>W13</f>
+        <v>ㄜ</v>
+      </c>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="59" t="s">
+        <v>363</v>
+      </c>
+      <c r="AF7" s="60"/>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="83" t="s">
+        <v>384</v>
+      </c>
+      <c r="AI7" s="84"/>
+      <c r="AJ7" s="85"/>
+      <c r="AR7" s="24"/>
+    </row>
+    <row r="8" spans="2:44" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="E8" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="43"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="43"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="43"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" s="43"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8" s="43"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="47"/>
+      <c r="AF8" s="65" t="s">
+        <v>288</v>
+      </c>
+      <c r="AG8" s="66"/>
+      <c r="AH8" s="67"/>
+      <c r="AR8" s="24"/>
+    </row>
+    <row r="9" spans="2:44" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
+      <c r="E9" s="80" t="str">
+        <f>G13</f>
+        <v>ㆠ</v>
+      </c>
+      <c r="F9" s="81"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="80" t="str">
+        <f>J24</f>
+        <v>ㄌ</v>
+      </c>
+      <c r="I9" s="81"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="80" t="str">
+        <f>R13</f>
+        <v>ㄏ</v>
+      </c>
+      <c r="L9" s="81"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="80" t="str">
+        <f>S24</f>
+        <v>ㄒ</v>
+      </c>
+      <c r="O9" s="81"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="80" t="str">
+        <f>Q13</f>
+        <v>ㄙ</v>
+      </c>
+      <c r="U9" s="81"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="77" t="str">
+        <f>AA13</f>
+        <v>ㆬ</v>
+      </c>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="77" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="79"/>
+      <c r="AC9" s="48"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="77" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG9" s="78"/>
+      <c r="AH9" s="79"/>
+      <c r="AR9" s="24"/>
+    </row>
+    <row r="10" spans="2:44" s="23" customFormat="1" ht="17" customHeight="1">
+      <c r="AR10" s="24"/>
+    </row>
+    <row r="11" spans="2:44" s="23" customFormat="1" ht="40" customHeight="1">
+      <c r="AR11" s="24"/>
+    </row>
+    <row r="12" spans="2:44" ht="24" customHeight="1">
+      <c r="B12" s="71" t="s">
+        <v>368</v>
+      </c>
+      <c r="C12" s="72"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="40">
+        <v>1</v>
+      </c>
+      <c r="F12" s="40">
+        <v>2</v>
+      </c>
+      <c r="G12" s="40">
+        <v>3</v>
+      </c>
+      <c r="H12" s="40">
+        <v>4</v>
+      </c>
+      <c r="I12" s="40">
+        <v>5</v>
+      </c>
+      <c r="J12" s="40">
+        <v>6</v>
+      </c>
+      <c r="K12" s="40">
+        <v>7</v>
+      </c>
+      <c r="L12" s="40">
+        <v>8</v>
+      </c>
+      <c r="M12" s="40">
+        <v>9</v>
+      </c>
+      <c r="N12" s="40">
+        <v>10</v>
+      </c>
+      <c r="O12" s="40">
+        <v>11</v>
+      </c>
+      <c r="P12" s="40">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="40">
+        <v>13</v>
+      </c>
+      <c r="R12" s="40">
+        <v>14</v>
+      </c>
+      <c r="S12" s="40">
+        <v>15</v>
+      </c>
+      <c r="T12" s="40">
+        <v>16</v>
+      </c>
+      <c r="U12" s="40">
+        <v>17</v>
+      </c>
+      <c r="V12" s="40">
+        <v>18</v>
+      </c>
+      <c r="W12" s="40">
+        <v>19</v>
+      </c>
+      <c r="X12" s="40">
+        <v>20</v>
+      </c>
+      <c r="Y12" s="40">
+        <v>21</v>
+      </c>
+      <c r="Z12" s="40">
+        <v>22</v>
+      </c>
+      <c r="AA12" s="41">
+        <v>23</v>
+      </c>
+      <c r="AB12" s="41">
+        <v>24</v>
+      </c>
+      <c r="AC12" s="41">
+        <v>25</v>
+      </c>
+      <c r="AD12" s="41">
+        <v>26</v>
+      </c>
+      <c r="AI12" s="98">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="98">
+        <v>2</v>
+      </c>
+      <c r="AK12" s="98">
+        <v>3</v>
+      </c>
+      <c r="AL12" s="98">
+        <v>4</v>
+      </c>
+      <c r="AM12" s="98">
+        <v>5</v>
+      </c>
+      <c r="AN12" s="98">
+        <v>6</v>
+      </c>
+      <c r="AO12" s="98">
+        <v>7</v>
+      </c>
+      <c r="AP12" s="98">
+        <v>8</v>
+      </c>
+      <c r="AQ12" s="24"/>
+      <c r="AR12" s="1"/>
+    </row>
+    <row r="13" spans="2:44" ht="24" customHeight="1">
+      <c r="B13" s="74" t="s">
+        <v>370</v>
+      </c>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="O13" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q13" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="R13" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="S13" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="T13" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="U13" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="V13" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="W13" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="X13" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y13" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z13" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA13" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB13" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC13" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD13" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="AI13" s="125" t="s">
+        <v>371</v>
+      </c>
+      <c r="AJ13" s="126" t="s">
+        <v>373</v>
+      </c>
+      <c r="AK13" s="127" t="s">
+        <v>374</v>
+      </c>
+      <c r="AL13" s="128"/>
+      <c r="AM13" s="125" t="s">
+        <v>372</v>
+      </c>
+      <c r="AN13" s="129"/>
+      <c r="AO13" s="130" t="s">
+        <v>375</v>
+      </c>
+      <c r="AP13" s="131" t="s">
+        <v>376</v>
+      </c>
+      <c r="AQ13" s="24"/>
+      <c r="AR13" s="1"/>
+    </row>
+    <row r="14" spans="2:44" ht="24" customHeight="1">
+      <c r="B14" s="74" t="s">
+        <v>378</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="M14" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="N14" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="O14" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="P14" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q14" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="R14" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="S14" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="T14" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="U14" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="V14" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="W14" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="X14" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y14" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z14" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA14" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB14" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC14" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="AD14" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="AI14" s="99"/>
+      <c r="AJ14" s="123">
+        <v>4</v>
+      </c>
+      <c r="AK14" s="123">
+        <v>3</v>
+      </c>
+      <c r="AL14" s="124">
+        <v>7</v>
+      </c>
+      <c r="AM14" s="123">
+        <v>6</v>
+      </c>
+      <c r="AN14" s="99"/>
+      <c r="AO14" s="123">
+        <v>5</v>
+      </c>
+      <c r="AP14" s="124">
+        <v>7</v>
+      </c>
+      <c r="AQ14" s="24"/>
+      <c r="AR14" s="1"/>
+    </row>
+    <row r="15" spans="2:44" ht="24" customHeight="1">
+      <c r="B15" s="74" t="s">
+        <v>377</v>
+      </c>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="N15" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="O15" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="P15" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q15" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="S15" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="V15" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="W15" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="X15" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y15" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z15" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA15" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB15" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC15" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD15" s="38"/>
+      <c r="AQ15" s="24"/>
+      <c r="AR15" s="1"/>
+    </row>
+    <row r="16" spans="2:44" ht="24" customHeight="1">
+      <c r="B16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="32" t="str">
+        <f>U13</f>
+        <v>ㄚ</v>
+      </c>
+      <c r="AD16" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE16" s="34" t="str">
+        <f>D30</f>
+        <v>ㆩ</v>
+      </c>
+      <c r="AQ16" s="24"/>
+      <c r="AR16" s="1"/>
+    </row>
+    <row r="17" spans="2:44" ht="24" customHeight="1">
+      <c r="B17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="32" t="str">
+        <f>V13</f>
+        <v>ㆦ</v>
+      </c>
+      <c r="AD17" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE17" s="34" t="str">
+        <f>F30</f>
+        <v>ㆧ</v>
+      </c>
+      <c r="AQ17" s="24"/>
+      <c r="AR17" s="1"/>
+    </row>
+    <row r="18" spans="2:44" ht="24" customHeight="1">
+      <c r="B18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="32" t="str">
+        <f>X13</f>
+        <v>ㆤ</v>
+      </c>
+      <c r="AD18" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE18" s="34" t="str">
+        <f>I30</f>
+        <v>ㆥ</v>
+      </c>
+      <c r="AF18" s="33"/>
+      <c r="AQ18" s="24"/>
+      <c r="AR18" s="1"/>
+    </row>
+    <row r="19" spans="2:44" ht="24" customHeight="1">
+      <c r="B19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="32" t="str">
+        <f>Y13</f>
+        <v>ㄞ</v>
+      </c>
+      <c r="AD19" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE19" s="34" t="str">
+        <f>K30</f>
+        <v>ㆮ</v>
+      </c>
+      <c r="AQ19" s="24"/>
+      <c r="AR19" s="1"/>
+    </row>
+    <row r="20" spans="2:44" ht="24" customHeight="1">
+      <c r="B20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32" t="str">
+        <f>Z13</f>
+        <v>ㄠ</v>
+      </c>
+      <c r="AD20" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE20" s="34" t="str">
+        <f>M30</f>
+        <v>ㆯ</v>
+      </c>
+      <c r="AQ20" s="24"/>
+      <c r="AR20" s="1"/>
+    </row>
+    <row r="21" spans="2:44" ht="24" customHeight="1">
+      <c r="B21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32" t="str">
+        <f>S13</f>
+        <v>ㄧ</v>
+      </c>
+      <c r="AD21" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE21" s="34" t="str">
+        <f>X30</f>
+        <v>ㆪ</v>
+      </c>
+      <c r="AQ21" s="24"/>
+      <c r="AR21" s="1"/>
+    </row>
+    <row r="22" spans="2:44" ht="24" customHeight="1">
+      <c r="B22" s="31"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="32"/>
+      <c r="AC22" s="32" t="str">
+        <f>T13</f>
+        <v>ㄨ</v>
+      </c>
+      <c r="AD22" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE22" s="34" t="str">
+        <f>Z30</f>
+        <v>ㆫ</v>
+      </c>
+    </row>
+    <row r="23" spans="2:44" ht="24" customHeight="1">
+      <c r="C23" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="2:44" ht="24" customHeight="1">
+      <c r="C24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="2:44" ht="24" customHeight="1">
+      <c r="C25" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="N25" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="O25" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="P25" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q25" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="R25" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="S25" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="T25" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="U25" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="V25" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="W25" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="X25" s="16"/>
+    </row>
+    <row r="26" spans="2:44" ht="27">
+      <c r="C26" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="N26" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="O26" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="P26" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q26" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="R26" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="S26" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="T26" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="U26" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="V26" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="W26" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="X26" s="16"/>
+    </row>
+    <row r="27" spans="2:44">
+      <c r="C27" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="M27" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="N27" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="O27" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="P27" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q27" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="R27" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="S27" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="T27" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="U27" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="V27" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="W27" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="2:44">
+      <c r="C29" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="2:44">
+      <c r="C30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="2:44">
+      <c r="C31" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="N31" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="O31" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="P31" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q31" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="R31" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="S31" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="T31" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="U31" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="V31" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="W31" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="X31" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y31" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z31" s="19" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="32" spans="2:44">
+      <c r="C32" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="M32" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="N32" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="O32" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="P32" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q32" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="R32" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="S32" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="T32" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="U32" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="V32" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="W32" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="X32" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y32" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z32" s="17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="33" spans="3:26">
+      <c r="C33" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="K33" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="L33" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="M33" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="N33" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="O33" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="P33" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q33" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="R33" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="S33" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="T33" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="U33" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="V33" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="W33" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="X33" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y33" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z33" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="AM4:AO4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AG4:AI4"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AC9:AE9"/>
+  </mergeCells>
+  <phoneticPr fontId="30" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A576A2-0DF0-F64A-A360-B74C6313CDB1}">
+  <dimension ref="B1:AF28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.83203125" defaultRowHeight="30"/>
+  <cols>
+    <col min="1" max="1" width="4.83203125" style="24"/>
+    <col min="2" max="2" width="9.83203125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="24" customWidth="1"/>
+    <col min="7" max="32" width="7.1640625" style="24" customWidth="1"/>
+    <col min="33" max="16384" width="4.83203125" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:32" ht="13" customHeight="1"/>
+    <row r="2" spans="2:32" ht="33">
+      <c r="B2" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="G2" s="26">
+        <v>1</v>
+      </c>
+      <c r="H2" s="26">
+        <v>2</v>
+      </c>
+      <c r="I2" s="26">
+        <v>3</v>
+      </c>
+      <c r="J2" s="26">
+        <v>4</v>
+      </c>
+      <c r="K2" s="26">
+        <v>5</v>
+      </c>
+      <c r="L2" s="26">
+        <v>6</v>
+      </c>
+      <c r="M2" s="26">
+        <v>7</v>
+      </c>
+      <c r="N2" s="26">
+        <v>8</v>
+      </c>
+      <c r="O2" s="26">
+        <v>9</v>
+      </c>
+      <c r="P2" s="26">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="26">
+        <v>11</v>
+      </c>
+      <c r="R2" s="26">
+        <v>12</v>
+      </c>
+      <c r="S2" s="26">
+        <v>13</v>
+      </c>
+      <c r="T2" s="26">
+        <v>14</v>
+      </c>
+      <c r="U2" s="26">
+        <v>15</v>
+      </c>
+      <c r="V2" s="26">
+        <v>16</v>
+      </c>
+      <c r="W2" s="26">
+        <v>17</v>
+      </c>
+      <c r="X2" s="26">
+        <v>18</v>
+      </c>
+      <c r="Y2" s="26">
+        <v>19</v>
+      </c>
+      <c r="Z2" s="26">
+        <v>20</v>
+      </c>
+      <c r="AA2" s="26">
+        <v>21</v>
+      </c>
+      <c r="AB2" s="26">
+        <v>22</v>
+      </c>
+      <c r="AC2" s="27">
+        <v>23</v>
+      </c>
+      <c r="AD2" s="27">
+        <v>24</v>
+      </c>
+      <c r="AE2" s="27">
+        <v>25</v>
+      </c>
+      <c r="AF2" s="27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:32" ht="33">
+      <c r="B3" s="26">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="O3" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="P3" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="S3" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="T3" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="U3" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="V3" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="W3" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="X3" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y3" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z3" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA3" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB3" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC3" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="AD3" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="AE3" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="AF3" s="27" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="2:32" ht="33">
+      <c r="B4" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="S4" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="T4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="U4" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="V4" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="W4" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="X4" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y4" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z4" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA4" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB4" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC4" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD4" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE4" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF4" s="28" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32" ht="33">
+      <c r="B5" s="26">
+        <v>3</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32" ht="33">
+      <c r="B6" s="26">
+        <v>4</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="2:32" ht="33">
+      <c r="B7" s="26">
+        <v>5</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="2:32" ht="33">
+      <c r="B8" s="26">
+        <v>6</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32" ht="33">
+      <c r="B9" s="26">
+        <v>7</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" ht="33">
+      <c r="B10" s="26">
+        <v>8</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32" ht="33">
+      <c r="B11" s="26">
+        <v>9</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" ht="33">
+      <c r="B12" s="26">
+        <v>10</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" ht="33">
+      <c r="B13" s="26">
+        <v>11</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" ht="33">
+      <c r="B14" s="26">
+        <v>12</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" ht="33">
+      <c r="B15" s="26">
+        <v>13</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" ht="33">
+      <c r="B16" s="26">
+        <v>14</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="33">
+      <c r="B17" s="26">
+        <v>15</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="33">
+      <c r="B18" s="26">
+        <v>16</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="33">
+      <c r="B19" s="26">
+        <v>17</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="33">
+      <c r="B20" s="26">
+        <v>18</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="33">
+      <c r="B21" s="26">
+        <v>19</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="33">
+      <c r="B22" s="26">
+        <v>20</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="33">
+      <c r="B23" s="26">
+        <v>21</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="33">
+      <c r="B24" s="26">
+        <v>22</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="33">
+      <c r="B25" s="27">
+        <v>23</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="33">
+      <c r="B26" s="27">
+        <v>24</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="33">
+      <c r="B27" s="27">
+        <v>25</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="33">
+      <c r="B28" s="27">
+        <v>26</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>367</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="30" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J51"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -3453,53 +8165,53 @@
   <sheetData>
     <row r="2" spans="2:7" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="B2" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>292</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>17</v>
@@ -3508,118 +8220,118 @@
         <v>10</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>24</v>
@@ -3628,18 +8340,18 @@
         <v>12</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>21</v>
@@ -3648,58 +8360,58 @@
         <v>7</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>6</v>
@@ -3707,182 +8419,182 @@
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="2:10">
@@ -3893,39 +8605,39 @@
     </row>
     <row r="26" spans="2:10" ht="18">
       <c r="B26" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C26" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="G26" s="12" t="s">
         <v>292</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>0</v>
@@ -3933,42 +8645,42 @@
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -3976,422 +8688,422 @@
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="15" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="15" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="15" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="15" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="15" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" spans="2:7">
@@ -4404,7 +9116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:B27"/>
   <sheetViews>
@@ -4419,107 +9131,107 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/docs/D03_鍵盤設計.xlsx
+++ b/docs/D03_鍵盤設計.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanjui/workspace/rime/tsap-goo-im/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8737BEF-FCDF-9648-88B5-3DF49B1D0617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4A9419-541C-3348-875D-E7771C7F12BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43180" yWindow="700" windowWidth="33580" windowHeight="20900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-43180" yWindow="700" windowWidth="33580" windowHeight="20900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="方音符號" sheetId="4" r:id="rId1"/>
-    <sheet name="TaiGi" sheetId="8" r:id="rId2"/>
-    <sheet name="台語注音符號" sheetId="7" r:id="rId3"/>
-    <sheet name="注音與方音符號" sheetId="6" r:id="rId4"/>
-    <sheet name="聲韻母" sheetId="2" r:id="rId5"/>
-    <sheet name="說明" sheetId="5" r:id="rId6"/>
+    <sheet name="四聲八調" sheetId="9" r:id="rId1"/>
+    <sheet name="方音符號" sheetId="4" r:id="rId2"/>
+    <sheet name="TaiGi" sheetId="8" r:id="rId3"/>
+    <sheet name="台語注音符號" sheetId="7" r:id="rId4"/>
+    <sheet name="注音與方音符號" sheetId="6" r:id="rId5"/>
+    <sheet name="聲韻母" sheetId="2" r:id="rId6"/>
+    <sheet name="說明" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="424">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1726,7 +1727,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="63">
+  <fonts count="64">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -2065,6 +2066,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="KangXiZiDian.com 康熙字典體常用版"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -2122,7 +2130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2285,11 +2293,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2412,6 +2438,147 @@
     <xf numFmtId="0" fontId="39" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2421,6 +2588,39 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="49" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2430,6 +2630,69 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2439,248 +2702,38 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="49" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2700,6 +2753,76 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>127000</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>194733</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>41</xdr:col>
+          <xdr:colOff>245534</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="圖片 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49EB1CC6-6B96-3C44-8053-70854C451AF1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$B$2:$AP$15" spid="_x0000_s11292"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="127000" y="9821333"/>
+              <a:ext cx="12149667" cy="3996267"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -2729,7 +2852,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$2:$AP$11" spid="_x0000_s1571"/>
+                  <a14:cameraTool cellRange="$B$2:$AP$11" spid="_x0000_s1602"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2769,7 +2892,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -2799,7 +2922,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$2:$AP$11" spid="_x0000_s6187"/>
+                  <a14:cameraTool cellRange="$B$2:$AP$11" spid="_x0000_s6218"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2839,7 +2962,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3174,6 +3297,1263 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1462DC-06D4-8A4F-952F-E0E2F300B3E4}">
+  <dimension ref="B1:AU28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AP10" sqref="AP10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="26"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
+    <col min="2" max="43" width="3.83203125" style="1" customWidth="1"/>
+    <col min="44" max="44" width="3.83203125" style="24" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:44" ht="27" thickBot="1"/>
+    <row r="2" spans="2:44" s="2" customFormat="1" ht="23" customHeight="1">
+      <c r="B2" s="89">
+        <v>1</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="89">
+        <v>2</v>
+      </c>
+      <c r="F2" s="90"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="100">
+        <v>3</v>
+      </c>
+      <c r="I2" s="101"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="100">
+        <v>4</v>
+      </c>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="100">
+        <v>5</v>
+      </c>
+      <c r="O2" s="101"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="100">
+        <v>6</v>
+      </c>
+      <c r="R2" s="101"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="100">
+        <v>7</v>
+      </c>
+      <c r="U2" s="101"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="103">
+        <v>8</v>
+      </c>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="92">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="93"/>
+      <c r="AH2" s="94"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AR2" s="24"/>
+    </row>
+    <row r="3" spans="2:44" s="2" customFormat="1" ht="23" customHeight="1">
+      <c r="B3" s="132"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="139"/>
+      <c r="S3" s="140"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="139"/>
+      <c r="V3" s="140"/>
+      <c r="W3" s="135"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="137"/>
+      <c r="Z3" s="135" t="str">
+        <f>AO20</f>
+        <v>五</v>
+      </c>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="137"/>
+      <c r="AC3" s="135" t="str">
+        <f>AP20</f>
+        <v>六</v>
+      </c>
+      <c r="AD3" s="136"/>
+      <c r="AE3" s="137"/>
+      <c r="AF3" s="135" t="str">
+        <f>AQ20</f>
+        <v>七</v>
+      </c>
+      <c r="AG3" s="136"/>
+      <c r="AH3" s="137"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AR3" s="24"/>
+    </row>
+    <row r="4" spans="2:44" s="23" customFormat="1" ht="23" customHeight="1" thickBot="1">
+      <c r="B4" s="82"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="79" t="str">
+        <f xml:space="preserve"> AO19 &amp; "（" &amp; AO21 &amp; "）"</f>
+        <v>陽平（â）</v>
+      </c>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="79" t="str">
+        <f xml:space="preserve"> AP19 &amp; "（" &amp; AP21 &amp; "）"</f>
+        <v>陽上（ǎ）</v>
+      </c>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="79" t="str">
+        <f xml:space="preserve"> AQ19 &amp; "（" &amp; AQ21 &amp; "）"</f>
+        <v>陽去（ā）</v>
+      </c>
+      <c r="AG4" s="80"/>
+      <c r="AH4" s="81"/>
+      <c r="AR4" s="24"/>
+    </row>
+    <row r="5" spans="2:44" s="2" customFormat="1" ht="23" customHeight="1">
+      <c r="C5" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="90"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="90"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="90"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" s="90"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" s="104"/>
+      <c r="W5" s="105"/>
+      <c r="X5" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5" s="104"/>
+      <c r="Z5" s="105"/>
+      <c r="AA5" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB5" s="104"/>
+      <c r="AC5" s="105"/>
+      <c r="AD5" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE5" s="104"/>
+      <c r="AF5" s="105"/>
+      <c r="AG5" s="92" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH5" s="93"/>
+      <c r="AI5" s="94"/>
+      <c r="AJ5" s="92" t="s">
+        <v>358</v>
+      </c>
+      <c r="AK5" s="93"/>
+      <c r="AL5" s="94"/>
+      <c r="AM5" s="92" t="s">
+        <v>360</v>
+      </c>
+      <c r="AN5" s="93"/>
+      <c r="AO5" s="94"/>
+      <c r="AR5" s="24"/>
+    </row>
+    <row r="6" spans="2:44" s="2" customFormat="1" ht="23" customHeight="1">
+      <c r="C6" s="132"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="134"/>
+      <c r="O6" s="132"/>
+      <c r="P6" s="133"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="132"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="134"/>
+      <c r="U6" s="135"/>
+      <c r="V6" s="136"/>
+      <c r="W6" s="137"/>
+      <c r="X6" s="135"/>
+      <c r="Y6" s="136"/>
+      <c r="Z6" s="137"/>
+      <c r="AA6" s="135"/>
+      <c r="AB6" s="136"/>
+      <c r="AC6" s="137"/>
+      <c r="AD6" s="135"/>
+      <c r="AE6" s="136"/>
+      <c r="AF6" s="137"/>
+      <c r="AG6" s="135" t="str">
+        <f xml:space="preserve"> AK20</f>
+        <v>一</v>
+      </c>
+      <c r="AH6" s="136"/>
+      <c r="AI6" s="137"/>
+      <c r="AJ6" s="135" t="str">
+        <f>AN20</f>
+        <v>四</v>
+      </c>
+      <c r="AK6" s="136"/>
+      <c r="AL6" s="137"/>
+      <c r="AM6" s="135" t="str">
+        <f>AM20</f>
+        <v>三</v>
+      </c>
+      <c r="AN6" s="136"/>
+      <c r="AO6" s="137"/>
+      <c r="AR6" s="24"/>
+    </row>
+    <row r="7" spans="2:44" s="23" customFormat="1" ht="23" customHeight="1" thickBot="1">
+      <c r="C7" s="82"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="84"/>
+      <c r="U7" s="85"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="87"/>
+      <c r="X7" s="85"/>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="87"/>
+      <c r="AA7" s="85"/>
+      <c r="AB7" s="86"/>
+      <c r="AC7" s="87"/>
+      <c r="AD7" s="85"/>
+      <c r="AE7" s="86"/>
+      <c r="AF7" s="87"/>
+      <c r="AG7" s="79" t="str">
+        <f xml:space="preserve"> AK19 &amp; "（" &amp; AK21 &amp; "）"</f>
+        <v>陰平（a）</v>
+      </c>
+      <c r="AH7" s="80"/>
+      <c r="AI7" s="81"/>
+      <c r="AJ7" s="79" t="str">
+        <f xml:space="preserve"> AN19 &amp; "（" &amp; AN21 &amp; "）"</f>
+        <v>陰入（ah）</v>
+      </c>
+      <c r="AK7" s="80"/>
+      <c r="AL7" s="81"/>
+      <c r="AM7" s="79" t="str">
+        <f xml:space="preserve"> AM19 &amp; "（" &amp; AM21 &amp; "）"</f>
+        <v>陰去（à）</v>
+      </c>
+      <c r="AN7" s="80"/>
+      <c r="AO7" s="81"/>
+      <c r="AR7" s="24"/>
+    </row>
+    <row r="8" spans="2:44" s="2" customFormat="1" ht="23" customHeight="1">
+      <c r="C8" s="3"/>
+      <c r="D8" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="90"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="90"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="90"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="90"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" s="90"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="W8" s="104"/>
+      <c r="X8" s="105"/>
+      <c r="Y8" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z8" s="104"/>
+      <c r="AA8" s="105"/>
+      <c r="AB8" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC8" s="104"/>
+      <c r="AD8" s="105"/>
+      <c r="AE8" s="92" t="s">
+        <v>287</v>
+      </c>
+      <c r="AF8" s="93"/>
+      <c r="AG8" s="94"/>
+      <c r="AH8" s="106" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI8" s="104"/>
+      <c r="AJ8" s="105"/>
+      <c r="AR8" s="24"/>
+    </row>
+    <row r="9" spans="2:44" s="2" customFormat="1" ht="23" customHeight="1">
+      <c r="C9" s="3"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="134"/>
+      <c r="P9" s="132"/>
+      <c r="Q9" s="133"/>
+      <c r="R9" s="134"/>
+      <c r="S9" s="132"/>
+      <c r="T9" s="133"/>
+      <c r="U9" s="134"/>
+      <c r="V9" s="135"/>
+      <c r="W9" s="136"/>
+      <c r="X9" s="137"/>
+      <c r="Y9" s="135"/>
+      <c r="Z9" s="136"/>
+      <c r="AA9" s="137"/>
+      <c r="AB9" s="135"/>
+      <c r="AC9" s="136"/>
+      <c r="AD9" s="137"/>
+      <c r="AE9" s="135" t="str">
+        <f>AR20</f>
+        <v>八</v>
+      </c>
+      <c r="AF9" s="136"/>
+      <c r="AG9" s="137"/>
+      <c r="AH9" s="135"/>
+      <c r="AI9" s="136"/>
+      <c r="AJ9" s="137"/>
+      <c r="AR9" s="24"/>
+    </row>
+    <row r="10" spans="2:44" s="23" customFormat="1" ht="23" customHeight="1" thickBot="1">
+      <c r="D10" s="82"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="84"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="85"/>
+      <c r="W10" s="86"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="85"/>
+      <c r="Z10" s="86"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="85"/>
+      <c r="AC10" s="86"/>
+      <c r="AD10" s="87"/>
+      <c r="AE10" s="79" t="str">
+        <f xml:space="preserve"> AR19 &amp; "（" &amp; AR21 &amp; "）"</f>
+        <v>陽入（a̍h）</v>
+      </c>
+      <c r="AF10" s="80"/>
+      <c r="AG10" s="81"/>
+      <c r="AH10" s="114"/>
+      <c r="AI10" s="115"/>
+      <c r="AJ10" s="116"/>
+      <c r="AR10" s="24"/>
+    </row>
+    <row r="11" spans="2:44" s="2" customFormat="1" ht="23" customHeight="1">
+      <c r="E11" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="90"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="90"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="90"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="90"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11" s="90"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="U11" s="90"/>
+      <c r="V11" s="91"/>
+      <c r="W11" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="X11" s="104"/>
+      <c r="Y11" s="105"/>
+      <c r="Z11" s="103" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA11" s="104"/>
+      <c r="AB11" s="105"/>
+      <c r="AC11" s="103" t="s">
+        <v>381</v>
+      </c>
+      <c r="AD11" s="104"/>
+      <c r="AE11" s="105"/>
+      <c r="AF11" s="92" t="s">
+        <v>288</v>
+      </c>
+      <c r="AG11" s="93"/>
+      <c r="AH11" s="94"/>
+      <c r="AR11" s="24"/>
+    </row>
+    <row r="12" spans="2:44" s="2" customFormat="1" ht="23" customHeight="1">
+      <c r="E12" s="132"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="133"/>
+      <c r="P12" s="134"/>
+      <c r="Q12" s="132"/>
+      <c r="R12" s="133"/>
+      <c r="S12" s="134"/>
+      <c r="T12" s="132"/>
+      <c r="U12" s="133"/>
+      <c r="V12" s="134"/>
+      <c r="W12" s="135"/>
+      <c r="X12" s="136"/>
+      <c r="Y12" s="137"/>
+      <c r="Z12" s="135"/>
+      <c r="AA12" s="136"/>
+      <c r="AB12" s="137"/>
+      <c r="AC12" s="135"/>
+      <c r="AD12" s="136"/>
+      <c r="AE12" s="137"/>
+      <c r="AF12" s="135" t="str">
+        <f xml:space="preserve"> AL20</f>
+        <v>二</v>
+      </c>
+      <c r="AG12" s="136"/>
+      <c r="AH12" s="137"/>
+      <c r="AR12" s="24"/>
+    </row>
+    <row r="13" spans="2:44" s="23" customFormat="1" ht="23" customHeight="1" thickBot="1">
+      <c r="E13" s="82"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="112"/>
+      <c r="S13" s="113"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="87"/>
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="108"/>
+      <c r="AB13" s="109"/>
+      <c r="AC13" s="85"/>
+      <c r="AD13" s="86"/>
+      <c r="AE13" s="87"/>
+      <c r="AF13" s="79" t="str">
+        <f xml:space="preserve"> AL19 &amp; "（" &amp; AL21 &amp; "）"</f>
+        <v>陰上（á）</v>
+      </c>
+      <c r="AG13" s="80"/>
+      <c r="AH13" s="81"/>
+      <c r="AR13" s="24"/>
+    </row>
+    <row r="14" spans="2:44" s="23" customFormat="1" ht="17" customHeight="1">
+      <c r="AR14" s="24"/>
+    </row>
+    <row r="15" spans="2:44" s="23" customFormat="1" ht="17" customHeight="1">
+      <c r="AR15" s="24"/>
+    </row>
+    <row r="16" spans="2:44" ht="30" customHeight="1">
+      <c r="B16" s="48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:47" ht="30" customHeight="1">
+      <c r="B17" s="75" t="s">
+        <v>370</v>
+      </c>
+      <c r="C17" s="76"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="AH17" s="78" t="s">
+        <v>401</v>
+      </c>
+      <c r="AI17" s="78"/>
+      <c r="AJ17" s="78"/>
+      <c r="AK17" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL17" s="53">
+        <v>2</v>
+      </c>
+      <c r="AM17" s="53">
+        <v>3</v>
+      </c>
+      <c r="AN17" s="53">
+        <v>4</v>
+      </c>
+      <c r="AO17" s="53">
+        <v>5</v>
+      </c>
+      <c r="AP17" s="53">
+        <v>6</v>
+      </c>
+      <c r="AQ17" s="53">
+        <v>7</v>
+      </c>
+      <c r="AR17" s="53">
+        <v>8</v>
+      </c>
+      <c r="AT17" s="24"/>
+    </row>
+    <row r="18" spans="2:47" ht="30" customHeight="1">
+      <c r="B18" s="75" t="s">
+        <v>397</v>
+      </c>
+      <c r="C18" s="76"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="16"/>
+      <c r="AH18" s="78" t="s">
+        <v>402</v>
+      </c>
+      <c r="AI18" s="78"/>
+      <c r="AJ18" s="78"/>
+      <c r="AK18" s="54" t="s">
+        <v>371</v>
+      </c>
+      <c r="AL18" s="54" t="s">
+        <v>373</v>
+      </c>
+      <c r="AM18" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="AN18" s="60" t="s">
+        <v>414</v>
+      </c>
+      <c r="AO18" s="54" t="s">
+        <v>413</v>
+      </c>
+      <c r="AP18" s="60" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ18" s="61" t="s">
+        <v>375</v>
+      </c>
+      <c r="AR18" s="61" t="s">
+        <v>376</v>
+      </c>
+      <c r="AT18" s="24"/>
+    </row>
+    <row r="19" spans="2:47" ht="30" customHeight="1">
+      <c r="B19" s="75" t="s">
+        <v>378</v>
+      </c>
+      <c r="C19" s="76"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="16"/>
+      <c r="AH19" s="78" t="s">
+        <v>404</v>
+      </c>
+      <c r="AI19" s="78"/>
+      <c r="AJ19" s="78"/>
+      <c r="AK19" s="55" t="s">
+        <v>405</v>
+      </c>
+      <c r="AL19" s="55" t="s">
+        <v>406</v>
+      </c>
+      <c r="AM19" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="AN19" s="56" t="s">
+        <v>408</v>
+      </c>
+      <c r="AO19" s="55" t="s">
+        <v>409</v>
+      </c>
+      <c r="AP19" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="AQ19" s="55" t="s">
+        <v>411</v>
+      </c>
+      <c r="AR19" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="AT19" s="24"/>
+    </row>
+    <row r="20" spans="2:47" ht="30" customHeight="1">
+      <c r="B20" s="75" t="s">
+        <v>391</v>
+      </c>
+      <c r="C20" s="76"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="16"/>
+      <c r="AH20" s="78" t="s">
+        <v>403</v>
+      </c>
+      <c r="AI20" s="78"/>
+      <c r="AJ20" s="78"/>
+      <c r="AK20" s="57" t="s">
+        <v>396</v>
+      </c>
+      <c r="AL20" s="57" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM20" s="57" t="s">
+        <v>386</v>
+      </c>
+      <c r="AN20" s="58" t="s">
+        <v>393</v>
+      </c>
+      <c r="AO20" s="57" t="s">
+        <v>389</v>
+      </c>
+      <c r="AP20" s="57" t="s">
+        <v>394</v>
+      </c>
+      <c r="AQ20" s="57" t="s">
+        <v>388</v>
+      </c>
+      <c r="AR20" s="58" t="s">
+        <v>395</v>
+      </c>
+      <c r="AT20" s="24"/>
+    </row>
+    <row r="21" spans="2:47" ht="30" customHeight="1">
+      <c r="B21" s="75" t="s">
+        <v>392</v>
+      </c>
+      <c r="C21" s="76"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="AH21" s="78" t="s">
+        <v>423</v>
+      </c>
+      <c r="AI21" s="78"/>
+      <c r="AJ21" s="78"/>
+      <c r="AK21" s="62" t="s">
+        <v>415</v>
+      </c>
+      <c r="AL21" s="62" t="s">
+        <v>416</v>
+      </c>
+      <c r="AM21" s="62" t="s">
+        <v>417</v>
+      </c>
+      <c r="AN21" s="62" t="s">
+        <v>418</v>
+      </c>
+      <c r="AO21" s="62" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP21" s="62" t="s">
+        <v>421</v>
+      </c>
+      <c r="AQ21" s="62" t="s">
+        <v>422</v>
+      </c>
+      <c r="AR21" s="62" t="s">
+        <v>419</v>
+      </c>
+      <c r="AU21" s="24"/>
+    </row>
+    <row r="22" spans="2:47" ht="30" customHeight="1">
+      <c r="AR22" s="1"/>
+      <c r="AU22" s="24"/>
+    </row>
+    <row r="23" spans="2:47" ht="30" customHeight="1">
+      <c r="B23" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR23" s="1"/>
+      <c r="AT23" s="24"/>
+    </row>
+    <row r="24" spans="2:47" ht="30" customHeight="1">
+      <c r="B24" s="75" t="s">
+        <v>370</v>
+      </c>
+      <c r="C24" s="76"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="51"/>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="51"/>
+      <c r="AR24" s="1"/>
+      <c r="AT24" s="24"/>
+    </row>
+    <row r="25" spans="2:47" ht="30" customHeight="1">
+      <c r="B25" s="72" t="s">
+        <v>377</v>
+      </c>
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="52" t="s">
+        <v>399</v>
+      </c>
+      <c r="AR25" s="1"/>
+      <c r="AT25" s="24"/>
+    </row>
+    <row r="26" spans="2:47" ht="30" customHeight="1">
+      <c r="B26" s="72" t="s">
+        <v>378</v>
+      </c>
+      <c r="C26" s="73"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR26" s="1"/>
+      <c r="AT26" s="24"/>
+    </row>
+    <row r="27" spans="2:47" ht="30" customHeight="1">
+      <c r="B27" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="C27" s="73"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="46"/>
+      <c r="AA27" s="46"/>
+      <c r="AB27" s="46"/>
+      <c r="AC27" s="46"/>
+      <c r="AR27" s="1"/>
+      <c r="AT27" s="24"/>
+    </row>
+    <row r="28" spans="2:47" ht="30" customHeight="1">
+      <c r="B28" s="72" t="s">
+        <v>392</v>
+      </c>
+      <c r="C28" s="73"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="47"/>
+      <c r="AA28" s="47"/>
+      <c r="AB28" s="47"/>
+      <c r="AC28" s="47" t="s">
+        <v>400</v>
+      </c>
+      <c r="AR28" s="1"/>
+      <c r="AU28" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="150">
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AM6:AO6"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="AD6:AF6"/>
+    <mergeCell ref="AG6:AI6"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="AC13:AE13"/>
+    <mergeCell ref="AF13:AH13"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="AG7:AI7"/>
+    <mergeCell ref="AJ7:AL7"/>
+    <mergeCell ref="AM7:AO7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+  </mergeCells>
+  <phoneticPr fontId="30" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AU24"/>
   <sheetViews>
@@ -3192,509 +4572,509 @@
   <sheetData>
     <row r="1" spans="2:46" ht="27" thickBot="1"/>
     <row r="2" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B2" s="42">
+      <c r="B2" s="89">
         <v>1</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="42">
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="89">
         <v>2</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="62">
+      <c r="F2" s="90"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="100">
         <v>3</v>
       </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="62">
+      <c r="I2" s="101"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="100">
         <v>4</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="62">
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="100">
         <v>5</v>
       </c>
-      <c r="O2" s="63"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="62">
+      <c r="O2" s="101"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="100">
         <v>6</v>
       </c>
-      <c r="R2" s="63"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="62">
+      <c r="R2" s="101"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="100">
         <v>7</v>
       </c>
-      <c r="U2" s="63"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="45">
+      <c r="U2" s="101"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="103">
         <v>8</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="65">
+      <c r="X2" s="104"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="92">
         <v>9</v>
       </c>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="65">
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="92">
         <v>0</v>
       </c>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="68" t="s">
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="67"/>
+      <c r="AG2" s="93"/>
+      <c r="AH2" s="94"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AR2" s="24"/>
     </row>
     <row r="3" spans="2:46" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
-      <c r="B3" s="80" t="str">
+      <c r="B3" s="82" t="str">
         <f xml:space="preserve"> E13</f>
         <v>ㄅ</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="80" t="str">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="82" t="str">
         <f>I13</f>
         <v>ㄉ</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="90" t="s">
+      <c r="F3" s="83"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="95" t="s">
         <v>386</v>
       </c>
-      <c r="I3" s="88"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="90" t="s">
+      <c r="I3" s="96"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="95" t="s">
         <v>387</v>
       </c>
-      <c r="L3" s="88"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="90" t="s">
+      <c r="L3" s="96"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="95" t="s">
         <v>388</v>
       </c>
-      <c r="O3" s="88"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="90" t="s">
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="95" t="s">
         <v>389</v>
       </c>
-      <c r="R3" s="88"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="87" t="s">
+      <c r="R3" s="96"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="98" t="s">
         <v>390</v>
       </c>
-      <c r="U3" s="88"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="77" t="str">
+      <c r="U3" s="96"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="85" t="str">
         <f>E20</f>
         <v>ㄚ</v>
       </c>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="77" t="str">
+      <c r="X3" s="86"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="85" t="str">
         <f>L20</f>
         <v>ㄞ</v>
       </c>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="79"/>
-      <c r="AC3" s="77" t="str">
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="85" t="str">
         <f>S20</f>
         <v>ㄢ</v>
       </c>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="79"/>
-      <c r="AF3" s="107" t="str">
+      <c r="AD3" s="86"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="88" t="str">
         <f>AC24</f>
         <v>◌̃</v>
       </c>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="79"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="87"/>
       <c r="AR3" s="24"/>
     </row>
     <row r="4" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="42" t="s">
+      <c r="D4" s="90"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="42" t="s">
+      <c r="G4" s="90"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="42" t="s">
+      <c r="J4" s="90"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="42" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="42" t="s">
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="S4" s="43"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="45" t="s">
+      <c r="S4" s="90"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="V4" s="46"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="45" t="s">
+      <c r="V4" s="104"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="45" t="s">
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="105"/>
+      <c r="AA4" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="45" t="s">
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="105"/>
+      <c r="AD4" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="65" t="s">
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="105"/>
+      <c r="AG4" s="92" t="s">
         <v>357</v>
       </c>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="67"/>
-      <c r="AJ4" s="65" t="s">
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="92" t="s">
         <v>358</v>
       </c>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="67"/>
-      <c r="AM4" s="65" t="s">
+      <c r="AK4" s="93"/>
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="92" t="s">
         <v>360</v>
       </c>
-      <c r="AN4" s="66"/>
-      <c r="AO4" s="67"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="94"/>
       <c r="AR4" s="24"/>
     </row>
     <row r="5" spans="2:46" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
-      <c r="C5" s="80" t="str">
+      <c r="C5" s="82" t="str">
         <f>G13</f>
         <v>ㄆ</v>
       </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="80" t="str">
+      <c r="D5" s="83"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="82" t="str">
         <f xml:space="preserve"> J13</f>
         <v>ㄊ</v>
       </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="80" t="str">
+      <c r="G5" s="83"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="82" t="str">
         <f>M13</f>
         <v>ㄍ</v>
       </c>
-      <c r="J5" s="81"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="80" t="str">
+      <c r="J5" s="83"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="82" t="str">
         <f>R13</f>
         <v>ㄐ</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="80" t="str">
+      <c r="M5" s="83"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="82" t="str">
         <f>N13</f>
         <v>ㆣ</v>
       </c>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="80" t="str">
+      <c r="P5" s="83"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="82" t="str">
         <f>V13</f>
         <v>ㄗ</v>
       </c>
-      <c r="S5" s="81"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="77" t="str">
+      <c r="S5" s="83"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="85" t="str">
         <f>Y20</f>
         <v>ㄧ</v>
       </c>
-      <c r="V5" s="78"/>
-      <c r="W5" s="79"/>
-      <c r="X5" s="77" t="str">
+      <c r="V5" s="86"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="85" t="str">
         <f>G20</f>
         <v>ㆦ</v>
       </c>
-      <c r="Y5" s="78"/>
-      <c r="Z5" s="79"/>
-      <c r="AA5" s="77" t="str">
+      <c r="Y5" s="86"/>
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="85" t="str">
         <f>J20</f>
         <v>ㆤ</v>
       </c>
-      <c r="AB5" s="78"/>
-      <c r="AC5" s="79"/>
-      <c r="AD5" s="77" t="str">
+      <c r="AB5" s="86"/>
+      <c r="AC5" s="87"/>
+      <c r="AD5" s="85" t="str">
         <f>T20</f>
         <v>ㄣ</v>
       </c>
-      <c r="AE5" s="78"/>
-      <c r="AF5" s="79"/>
-      <c r="AG5" s="86"/>
-      <c r="AH5" s="84"/>
-      <c r="AI5" s="85"/>
-      <c r="AJ5" s="86"/>
-      <c r="AK5" s="84"/>
-      <c r="AL5" s="85"/>
-      <c r="AM5" s="86"/>
-      <c r="AN5" s="84"/>
-      <c r="AO5" s="85"/>
+      <c r="AE5" s="86"/>
+      <c r="AF5" s="87"/>
+      <c r="AG5" s="79"/>
+      <c r="AH5" s="80"/>
+      <c r="AI5" s="81"/>
+      <c r="AJ5" s="79"/>
+      <c r="AK5" s="80"/>
+      <c r="AL5" s="81"/>
+      <c r="AM5" s="79"/>
+      <c r="AN5" s="80"/>
+      <c r="AO5" s="81"/>
       <c r="AR5" s="24"/>
     </row>
     <row r="6" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="C6" s="3"/>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="42" t="s">
+      <c r="E6" s="90"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="42" t="s">
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="43"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="42" t="s">
+      <c r="K6" s="90"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="43"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="42" t="s">
+      <c r="N6" s="90"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="42" t="s">
+      <c r="Q6" s="90"/>
+      <c r="R6" s="91"/>
+      <c r="S6" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="T6" s="43"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="45" t="s">
+      <c r="T6" s="90"/>
+      <c r="U6" s="91"/>
+      <c r="V6" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="W6" s="46"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="45" t="s">
+      <c r="W6" s="104"/>
+      <c r="X6" s="105"/>
+      <c r="Y6" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="45" t="s">
+      <c r="Z6" s="104"/>
+      <c r="AA6" s="105"/>
+      <c r="AB6" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="65" t="s">
+      <c r="AC6" s="104"/>
+      <c r="AD6" s="105"/>
+      <c r="AE6" s="92" t="s">
         <v>287</v>
       </c>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="67"/>
-      <c r="AH6" s="70" t="s">
+      <c r="AF6" s="93"/>
+      <c r="AG6" s="94"/>
+      <c r="AH6" s="106" t="s">
         <v>359</v>
       </c>
-      <c r="AI6" s="46"/>
-      <c r="AJ6" s="47"/>
+      <c r="AI6" s="104"/>
+      <c r="AJ6" s="105"/>
       <c r="AR6" s="24"/>
     </row>
     <row r="7" spans="2:46" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
-      <c r="D7" s="80" t="str">
+      <c r="D7" s="82" t="str">
         <f>H13</f>
         <v>ㄇ</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="80" t="str">
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="82" t="str">
         <f>K13</f>
         <v>ㄋ</v>
       </c>
-      <c r="H7" s="81"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="80" t="str">
+      <c r="H7" s="83"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="82" t="str">
         <f>O13</f>
         <v>ㄎ</v>
       </c>
-      <c r="K7" s="81"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="80" t="str">
+      <c r="K7" s="83"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="82" t="str">
         <f>T13</f>
         <v>ㄑ</v>
       </c>
-      <c r="N7" s="81"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="80" t="str">
+      <c r="N7" s="83"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="82" t="str">
         <f>P13</f>
         <v>ㄫ</v>
       </c>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="80" t="str">
+      <c r="Q7" s="83"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="82" t="str">
         <f>X13</f>
         <v>ㄘ</v>
       </c>
-      <c r="T7" s="81"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="77" t="str">
+      <c r="T7" s="83"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="85" t="str">
         <f>AA20</f>
         <v>ㄨ</v>
       </c>
-      <c r="W7" s="78"/>
-      <c r="X7" s="79"/>
-      <c r="Y7" s="77" t="str">
+      <c r="W7" s="86"/>
+      <c r="X7" s="87"/>
+      <c r="Y7" s="85" t="str">
         <f>I20</f>
         <v>ㄜ</v>
       </c>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="79"/>
-      <c r="AB7" s="77" t="str">
+      <c r="Z7" s="86"/>
+      <c r="AA7" s="87"/>
+      <c r="AB7" s="85" t="str">
         <f>N20</f>
         <v>ㄠ</v>
       </c>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="79"/>
-      <c r="AE7" s="77" t="str">
+      <c r="AC7" s="86"/>
+      <c r="AD7" s="87"/>
+      <c r="AE7" s="85" t="str">
         <f>U20</f>
         <v>ㄤ</v>
       </c>
-      <c r="AF7" s="78"/>
-      <c r="AG7" s="79"/>
-      <c r="AH7" s="83"/>
-      <c r="AI7" s="84"/>
-      <c r="AJ7" s="85"/>
+      <c r="AF7" s="86"/>
+      <c r="AG7" s="87"/>
+      <c r="AH7" s="110"/>
+      <c r="AI7" s="80"/>
+      <c r="AJ7" s="81"/>
       <c r="AR7" s="24"/>
     </row>
     <row r="8" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="42" t="s">
+      <c r="F8" s="90"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="43"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="42" t="s">
+      <c r="I8" s="90"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="43"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="42" t="s">
+      <c r="L8" s="90"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="43"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="42" t="s">
+      <c r="O8" s="90"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="R8" s="43"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="42" t="s">
+      <c r="R8" s="90"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="U8" s="43"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="45" t="s">
+      <c r="U8" s="90"/>
+      <c r="V8" s="91"/>
+      <c r="W8" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="45" t="s">
+      <c r="X8" s="104"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="103" t="s">
         <v>380</v>
       </c>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="45" t="s">
+      <c r="AA8" s="104"/>
+      <c r="AB8" s="105"/>
+      <c r="AC8" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="AD8" s="46"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="65" t="s">
+      <c r="AD8" s="104"/>
+      <c r="AE8" s="105"/>
+      <c r="AF8" s="92" t="s">
         <v>288</v>
       </c>
-      <c r="AG8" s="66"/>
-      <c r="AH8" s="67"/>
+      <c r="AG8" s="93"/>
+      <c r="AH8" s="94"/>
       <c r="AR8" s="24"/>
     </row>
     <row r="9" spans="2:46" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
-      <c r="E9" s="80" t="str">
+      <c r="E9" s="82" t="str">
         <f>F14</f>
         <v>b</v>
       </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="80" t="str">
+      <c r="F9" s="83"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="82" t="str">
         <f>L13</f>
         <v>ㄌ</v>
       </c>
-      <c r="I9" s="81"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="80" t="str">
+      <c r="I9" s="83"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="82" t="str">
         <f>Q13</f>
         <v>ㄏ</v>
       </c>
-      <c r="L9" s="81"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="80" t="str">
+      <c r="L9" s="83"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="82" t="str">
         <f>U13</f>
         <v>ㄒ</v>
       </c>
-      <c r="O9" s="81"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="100" t="str">
+      <c r="O9" s="83"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="111" t="str">
         <f xml:space="preserve"> S13 &amp; "/" &amp; W13</f>
         <v>ㆢ/ㆡ</v>
       </c>
-      <c r="R9" s="101"/>
-      <c r="S9" s="102"/>
-      <c r="T9" s="80" t="str">
+      <c r="R9" s="112"/>
+      <c r="S9" s="113"/>
+      <c r="T9" s="82" t="str">
         <f>Y13</f>
         <v>ㄙ</v>
       </c>
-      <c r="U9" s="81"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="77" t="str">
+      <c r="U9" s="83"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="85" t="str">
         <f>R20</f>
         <v>ㆬ</v>
       </c>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="104" t="str">
+      <c r="X9" s="86"/>
+      <c r="Y9" s="87"/>
+      <c r="Z9" s="107" t="str">
         <f xml:space="preserve"> P20 &amp; "/" &amp; Q20</f>
         <v>ㆰ/ㆱ</v>
       </c>
-      <c r="AA9" s="105"/>
-      <c r="AB9" s="106"/>
-      <c r="AC9" s="77" t="str">
+      <c r="AA9" s="108"/>
+      <c r="AB9" s="109"/>
+      <c r="AC9" s="85" t="str">
         <f>V20</f>
         <v>ㆲ</v>
       </c>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="79"/>
-      <c r="AF9" s="77" t="str">
+      <c r="AD9" s="86"/>
+      <c r="AE9" s="87"/>
+      <c r="AF9" s="85" t="str">
         <f>X20</f>
         <v>ㆭ</v>
       </c>
-      <c r="AG9" s="78"/>
-      <c r="AH9" s="79"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="87"/>
       <c r="AR9" s="24"/>
     </row>
     <row r="10" spans="2:46" s="23" customFormat="1" ht="17" customHeight="1">
@@ -3707,469 +5087,469 @@
       <c r="AR11" s="24"/>
     </row>
     <row r="12" spans="2:46" ht="30" customHeight="1">
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="48" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="2:46" ht="30" customHeight="1">
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="75" t="s">
         <v>370</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="103" t="s">
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="103" t="s">
+      <c r="F13" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="103" t="s">
+      <c r="G13" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="103" t="s">
+      <c r="H13" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="103" t="s">
+      <c r="I13" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="J13" s="103" t="s">
+      <c r="J13" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="K13" s="103" t="s">
+      <c r="K13" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="L13" s="103" t="s">
+      <c r="L13" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="M13" s="103" t="s">
+      <c r="M13" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="N13" s="103" t="s">
+      <c r="N13" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="O13" s="103" t="s">
+      <c r="O13" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P13" s="103" t="s">
+      <c r="P13" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="Q13" s="103" t="s">
+      <c r="Q13" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="R13" s="103" t="s">
+      <c r="R13" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="S13" s="103" t="s">
+      <c r="S13" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="T13" s="103" t="s">
+      <c r="T13" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="U13" s="103" t="s">
+      <c r="U13" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="V13" s="103" t="s">
+      <c r="V13" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="W13" s="103" t="s">
+      <c r="W13" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="X13" s="103" t="s">
+      <c r="X13" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="Y13" s="103" t="s">
+      <c r="Y13" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="AH13" s="109" t="s">
+      <c r="AH13" s="78" t="s">
         <v>401</v>
       </c>
-      <c r="AI13" s="109"/>
-      <c r="AJ13" s="109"/>
-      <c r="AK13" s="110">
+      <c r="AI13" s="78"/>
+      <c r="AJ13" s="78"/>
+      <c r="AK13" s="53">
         <v>1</v>
       </c>
-      <c r="AL13" s="110">
+      <c r="AL13" s="53">
         <v>2</v>
       </c>
-      <c r="AM13" s="110">
+      <c r="AM13" s="53">
         <v>3</v>
       </c>
-      <c r="AN13" s="110">
+      <c r="AN13" s="53">
         <v>4</v>
       </c>
-      <c r="AO13" s="110">
+      <c r="AO13" s="53">
         <v>5</v>
       </c>
-      <c r="AP13" s="110">
+      <c r="AP13" s="53">
         <v>6</v>
       </c>
-      <c r="AQ13" s="110">
+      <c r="AQ13" s="53">
         <v>7</v>
       </c>
-      <c r="AR13" s="110">
+      <c r="AR13" s="53">
         <v>8</v>
       </c>
       <c r="AT13" s="24"/>
     </row>
     <row r="14" spans="2:46" ht="30" customHeight="1">
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="75" t="s">
         <v>397</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="91" t="s">
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="91" t="s">
+      <c r="F14" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="91" t="s">
+      <c r="G14" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="H14" s="91" t="s">
+      <c r="H14" s="42" t="s">
         <v>338</v>
       </c>
-      <c r="I14" s="91" t="s">
+      <c r="I14" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="J14" s="91" t="s">
+      <c r="J14" s="42" t="s">
         <v>348</v>
       </c>
-      <c r="K14" s="91" t="s">
+      <c r="K14" s="42" t="s">
         <v>349</v>
       </c>
-      <c r="L14" s="91" t="s">
+      <c r="L14" s="42" t="s">
         <v>350</v>
       </c>
-      <c r="M14" s="91" t="s">
+      <c r="M14" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="N14" s="91" t="s">
+      <c r="N14" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="O14" s="91" t="s">
+      <c r="O14" s="42" t="s">
         <v>351</v>
       </c>
-      <c r="P14" s="91" t="s">
+      <c r="P14" s="42" t="s">
         <v>344</v>
       </c>
-      <c r="Q14" s="91" t="s">
+      <c r="Q14" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="R14" s="91" t="s">
+      <c r="R14" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="S14" s="91" t="s">
+      <c r="S14" s="42" t="s">
         <v>353</v>
       </c>
-      <c r="T14" s="91" t="s">
+      <c r="T14" s="42" t="s">
         <v>354</v>
       </c>
-      <c r="U14" s="91" t="s">
+      <c r="U14" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="V14" s="91" t="s">
+      <c r="V14" s="42" t="s">
         <v>355</v>
       </c>
-      <c r="W14" s="91" t="s">
+      <c r="W14" s="42" t="s">
         <v>353</v>
       </c>
-      <c r="X14" s="91" t="s">
+      <c r="X14" s="42" t="s">
         <v>356</v>
       </c>
-      <c r="Y14" s="91" t="s">
+      <c r="Y14" s="42" t="s">
         <v>179</v>
       </c>
       <c r="Z14" s="16"/>
-      <c r="AH14" s="109" t="s">
+      <c r="AH14" s="78" t="s">
         <v>402</v>
       </c>
-      <c r="AI14" s="109"/>
-      <c r="AJ14" s="109"/>
-      <c r="AK14" s="111" t="s">
+      <c r="AI14" s="78"/>
+      <c r="AJ14" s="78"/>
+      <c r="AK14" s="54" t="s">
         <v>371</v>
       </c>
-      <c r="AL14" s="111" t="s">
+      <c r="AL14" s="54" t="s">
         <v>373</v>
       </c>
-      <c r="AM14" s="116" t="s">
+      <c r="AM14" s="59" t="s">
         <v>374</v>
       </c>
-      <c r="AN14" s="117" t="s">
+      <c r="AN14" s="60" t="s">
         <v>414</v>
       </c>
-      <c r="AO14" s="111" t="s">
+      <c r="AO14" s="54" t="s">
         <v>413</v>
       </c>
-      <c r="AP14" s="117" t="s">
+      <c r="AP14" s="60" t="s">
         <v>414</v>
       </c>
-      <c r="AQ14" s="118" t="s">
+      <c r="AQ14" s="61" t="s">
         <v>375</v>
       </c>
-      <c r="AR14" s="118" t="s">
+      <c r="AR14" s="61" t="s">
         <v>376</v>
       </c>
       <c r="AT14" s="24"/>
     </row>
     <row r="15" spans="2:46" ht="30" customHeight="1">
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="75" t="s">
         <v>378</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="92">
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="43">
         <v>1</v>
       </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="92"/>
-      <c r="S15" s="92"/>
-      <c r="T15" s="92"/>
-      <c r="U15" s="92"/>
-      <c r="V15" s="92"/>
-      <c r="W15" s="92"/>
-      <c r="X15" s="92"/>
-      <c r="Y15" s="92"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
       <c r="Z15" s="16"/>
-      <c r="AH15" s="109" t="s">
+      <c r="AH15" s="78" t="s">
         <v>404</v>
       </c>
-      <c r="AI15" s="109"/>
-      <c r="AJ15" s="109"/>
-      <c r="AK15" s="112" t="s">
+      <c r="AI15" s="78"/>
+      <c r="AJ15" s="78"/>
+      <c r="AK15" s="55" t="s">
         <v>405</v>
       </c>
-      <c r="AL15" s="112" t="s">
+      <c r="AL15" s="55" t="s">
         <v>406</v>
       </c>
-      <c r="AM15" s="112" t="s">
+      <c r="AM15" s="55" t="s">
         <v>407</v>
       </c>
-      <c r="AN15" s="113" t="s">
+      <c r="AN15" s="56" t="s">
         <v>408</v>
       </c>
-      <c r="AO15" s="112" t="s">
+      <c r="AO15" s="55" t="s">
         <v>409</v>
       </c>
-      <c r="AP15" s="112" t="s">
+      <c r="AP15" s="55" t="s">
         <v>410</v>
       </c>
-      <c r="AQ15" s="112" t="s">
+      <c r="AQ15" s="55" t="s">
         <v>411</v>
       </c>
-      <c r="AR15" s="113" t="s">
+      <c r="AR15" s="56" t="s">
         <v>412</v>
       </c>
       <c r="AT15" s="24"/>
     </row>
     <row r="16" spans="2:46" ht="30" customHeight="1">
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="75" t="s">
         <v>391</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="92" t="s">
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="F16" s="92" t="s">
+      <c r="F16" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="G16" s="92" t="s">
+      <c r="G16" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="H16" s="92" t="s">
+      <c r="H16" s="43" t="s">
         <v>298</v>
       </c>
-      <c r="I16" s="92" t="s">
+      <c r="I16" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="J16" s="92" t="s">
+      <c r="J16" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="K16" s="92" t="s">
+      <c r="K16" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="L16" s="92" t="s">
+      <c r="L16" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="M16" s="92" t="s">
+      <c r="M16" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="N16" s="92" t="s">
+      <c r="N16" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="O16" s="92" t="s">
+      <c r="O16" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="P16" s="92" t="s">
+      <c r="P16" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="Q16" s="92" t="s">
+      <c r="Q16" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="R16" s="92" t="s">
+      <c r="R16" s="43" t="s">
         <v>294</v>
       </c>
-      <c r="S16" s="92" t="s">
+      <c r="S16" s="43" t="s">
         <v>295</v>
       </c>
-      <c r="T16" s="92" t="s">
+      <c r="T16" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="U16" s="92" t="s">
+      <c r="U16" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="V16" s="92" t="s">
+      <c r="V16" s="43" t="s">
         <v>304</v>
       </c>
-      <c r="W16" s="92" t="s">
+      <c r="W16" s="43" t="s">
         <v>305</v>
       </c>
-      <c r="X16" s="92" t="s">
+      <c r="X16" s="43" t="s">
         <v>306</v>
       </c>
-      <c r="Y16" s="92" t="s">
+      <c r="Y16" s="43" t="s">
         <v>179</v>
       </c>
       <c r="Z16" s="16"/>
-      <c r="AH16" s="109" t="s">
+      <c r="AH16" s="78" t="s">
         <v>403</v>
       </c>
-      <c r="AI16" s="109"/>
-      <c r="AJ16" s="109"/>
-      <c r="AK16" s="114" t="s">
+      <c r="AI16" s="78"/>
+      <c r="AJ16" s="78"/>
+      <c r="AK16" s="57" t="s">
         <v>396</v>
       </c>
-      <c r="AL16" s="114" t="s">
+      <c r="AL16" s="57" t="s">
         <v>387</v>
       </c>
-      <c r="AM16" s="114" t="s">
+      <c r="AM16" s="57" t="s">
         <v>386</v>
       </c>
-      <c r="AN16" s="115" t="s">
+      <c r="AN16" s="58" t="s">
         <v>393</v>
       </c>
-      <c r="AO16" s="114" t="s">
+      <c r="AO16" s="57" t="s">
         <v>389</v>
       </c>
-      <c r="AP16" s="114" t="s">
+      <c r="AP16" s="57" t="s">
         <v>394</v>
       </c>
-      <c r="AQ16" s="114" t="s">
+      <c r="AQ16" s="57" t="s">
         <v>388</v>
       </c>
-      <c r="AR16" s="115" t="s">
+      <c r="AR16" s="58" t="s">
         <v>395</v>
       </c>
       <c r="AT16" s="24"/>
     </row>
     <row r="17" spans="2:47" ht="30" customHeight="1">
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="75" t="s">
         <v>392</v>
       </c>
-      <c r="C17" s="72"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="93" t="s">
+      <c r="C17" s="76"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="93" t="s">
+      <c r="F17" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="93" t="s">
+      <c r="G17" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="93" t="s">
+      <c r="H17" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="I17" s="93" t="s">
+      <c r="I17" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="J17" s="93" t="s">
+      <c r="J17" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="93" t="s">
+      <c r="K17" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="L17" s="93" t="s">
+      <c r="L17" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="M17" s="93" t="s">
+      <c r="M17" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="N17" s="93" t="s">
+      <c r="N17" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="O17" s="93" t="s">
+      <c r="O17" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="P17" s="93" t="s">
+      <c r="P17" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="Q17" s="93" t="s">
+      <c r="Q17" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="R17" s="93" t="s">
+      <c r="R17" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="S17" s="93" t="s">
+      <c r="S17" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="T17" s="93" t="s">
+      <c r="T17" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="U17" s="93" t="s">
+      <c r="U17" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="V17" s="93" t="s">
+      <c r="V17" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="W17" s="93" t="s">
+      <c r="W17" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="X17" s="93" t="s">
+      <c r="X17" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="Y17" s="93" t="s">
+      <c r="Y17" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="AH17" s="109" t="s">
+      <c r="AH17" s="78" t="s">
         <v>423</v>
       </c>
-      <c r="AI17" s="109"/>
-      <c r="AJ17" s="109"/>
-      <c r="AK17" s="119" t="s">
+      <c r="AI17" s="78"/>
+      <c r="AJ17" s="78"/>
+      <c r="AK17" s="62" t="s">
         <v>415</v>
       </c>
-      <c r="AL17" s="119" t="s">
+      <c r="AL17" s="62" t="s">
         <v>416</v>
       </c>
-      <c r="AM17" s="119" t="s">
+      <c r="AM17" s="62" t="s">
         <v>417</v>
       </c>
-      <c r="AN17" s="119" t="s">
+      <c r="AN17" s="62" t="s">
         <v>418</v>
       </c>
-      <c r="AO17" s="119" t="s">
+      <c r="AO17" s="62" t="s">
         <v>420</v>
       </c>
-      <c r="AP17" s="119" t="s">
+      <c r="AP17" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="AQ17" s="119" t="s">
+      <c r="AQ17" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="AR17" s="119" t="s">
+      <c r="AR17" s="62" t="s">
         <v>419</v>
       </c>
       <c r="AU17" s="24"/>
@@ -4179,375 +5559,375 @@
       <c r="AU18" s="24"/>
     </row>
     <row r="19" spans="2:47" ht="30" customHeight="1">
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="48" t="s">
         <v>116</v>
       </c>
       <c r="AR19" s="1"/>
       <c r="AT19" s="24"/>
     </row>
     <row r="20" spans="2:47" ht="30" customHeight="1">
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="75" t="s">
         <v>370</v>
       </c>
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="103" t="s">
+      <c r="C20" s="76"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="103" t="s">
+      <c r="F20" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="103" t="s">
+      <c r="G20" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="103" t="s">
+      <c r="H20" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="I20" s="103" t="s">
+      <c r="I20" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="J20" s="103" t="s">
+      <c r="J20" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="K20" s="103" t="s">
+      <c r="K20" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="L20" s="103" t="s">
+      <c r="L20" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="M20" s="103" t="s">
+      <c r="M20" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="N20" s="103" t="s">
+      <c r="N20" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="O20" s="103" t="s">
+      <c r="O20" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="P20" s="103" t="s">
+      <c r="P20" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="Q20" s="103" t="s">
+      <c r="Q20" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="R20" s="103" t="s">
+      <c r="R20" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="S20" s="103" t="s">
+      <c r="S20" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="T20" s="103" t="s">
+      <c r="T20" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="U20" s="103" t="s">
+      <c r="U20" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="V20" s="103" t="s">
+      <c r="V20" s="51" t="s">
         <v>398</v>
       </c>
-      <c r="W20" s="103" t="s">
+      <c r="W20" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="X20" s="103" t="s">
+      <c r="X20" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="Y20" s="103" t="s">
+      <c r="Y20" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="Z20" s="103" t="s">
+      <c r="Z20" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="AA20" s="103" t="s">
+      <c r="AA20" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="AB20" s="103" t="s">
+      <c r="AB20" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="AC20" s="103"/>
+      <c r="AC20" s="51"/>
       <c r="AR20" s="1"/>
       <c r="AT20" s="24"/>
     </row>
     <row r="21" spans="2:47" ht="30" customHeight="1">
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="72" t="s">
         <v>377</v>
       </c>
-      <c r="C21" s="75"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="94" t="s">
+      <c r="C21" s="73"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="F21" s="94" t="s">
+      <c r="F21" s="45" t="s">
         <v>328</v>
       </c>
-      <c r="G21" s="94" t="s">
+      <c r="G21" s="45" t="s">
         <v>329</v>
       </c>
-      <c r="H21" s="94" t="s">
+      <c r="H21" s="45" t="s">
         <v>330</v>
       </c>
-      <c r="I21" s="94" t="s">
+      <c r="I21" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="J21" s="94" t="s">
+      <c r="J21" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="K21" s="94" t="s">
+      <c r="K21" s="45" t="s">
         <v>331</v>
       </c>
-      <c r="L21" s="94" t="s">
+      <c r="L21" s="45" t="s">
         <v>332</v>
       </c>
-      <c r="M21" s="94" t="s">
+      <c r="M21" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="N21" s="94" t="s">
+      <c r="N21" s="45" t="s">
         <v>334</v>
       </c>
-      <c r="O21" s="94" t="s">
+      <c r="O21" s="45" t="s">
         <v>335</v>
       </c>
-      <c r="P21" s="94" t="s">
+      <c r="P21" s="45" t="s">
         <v>336</v>
       </c>
-      <c r="Q21" s="94" t="s">
+      <c r="Q21" s="45" t="s">
         <v>337</v>
       </c>
-      <c r="R21" s="94" t="s">
+      <c r="R21" s="45" t="s">
         <v>338</v>
       </c>
-      <c r="S21" s="94" t="s">
+      <c r="S21" s="45" t="s">
         <v>339</v>
       </c>
-      <c r="T21" s="94" t="s">
+      <c r="T21" s="45" t="s">
         <v>340</v>
       </c>
-      <c r="U21" s="94" t="s">
+      <c r="U21" s="45" t="s">
         <v>341</v>
       </c>
-      <c r="V21" s="94" t="s">
+      <c r="V21" s="45" t="s">
         <v>342</v>
       </c>
-      <c r="W21" s="94" t="s">
+      <c r="W21" s="45" t="s">
         <v>343</v>
       </c>
-      <c r="X21" s="94" t="s">
+      <c r="X21" s="45" t="s">
         <v>344</v>
       </c>
-      <c r="Y21" s="94" t="s">
+      <c r="Y21" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="Z21" s="94" t="s">
+      <c r="Z21" s="45" t="s">
         <v>345</v>
       </c>
-      <c r="AA21" s="94" t="s">
+      <c r="AA21" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="AB21" s="94" t="s">
+      <c r="AB21" s="45" t="s">
         <v>346</v>
       </c>
-      <c r="AC21" s="108" t="s">
+      <c r="AC21" s="52" t="s">
         <v>399</v>
       </c>
       <c r="AR21" s="1"/>
       <c r="AT21" s="24"/>
     </row>
     <row r="22" spans="2:47" ht="30" customHeight="1">
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="72" t="s">
         <v>378</v>
       </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="94"/>
-      <c r="T22" s="94"/>
-      <c r="U22" s="94"/>
-      <c r="V22" s="94"/>
-      <c r="W22" s="94"/>
-      <c r="X22" s="94"/>
-      <c r="Y22" s="94"/>
-      <c r="Z22" s="94"/>
-      <c r="AA22" s="94"/>
-      <c r="AB22" s="94"/>
-      <c r="AC22" s="94" t="s">
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="45" t="s">
         <v>1</v>
       </c>
       <c r="AR22" s="1"/>
       <c r="AT22" s="24"/>
     </row>
     <row r="23" spans="2:47" ht="30" customHeight="1">
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="72" t="s">
         <v>391</v>
       </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="95" t="s">
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="F23" s="95" t="s">
+      <c r="F23" s="46" t="s">
         <v>309</v>
       </c>
-      <c r="G23" s="95" t="s">
+      <c r="G23" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="H23" s="95" t="s">
+      <c r="H23" s="46" t="s">
         <v>310</v>
       </c>
-      <c r="I23" s="95" t="s">
+      <c r="I23" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="J23" s="95" t="s">
+      <c r="J23" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="K23" s="95" t="s">
+      <c r="K23" s="46" t="s">
         <v>312</v>
       </c>
-      <c r="L23" s="95" t="s">
+      <c r="L23" s="46" t="s">
         <v>313</v>
       </c>
-      <c r="M23" s="95" t="s">
+      <c r="M23" s="46" t="s">
         <v>314</v>
       </c>
-      <c r="N23" s="95" t="s">
+      <c r="N23" s="46" t="s">
         <v>315</v>
       </c>
-      <c r="O23" s="95" t="s">
+      <c r="O23" s="46" t="s">
         <v>316</v>
       </c>
-      <c r="P23" s="95" t="s">
+      <c r="P23" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="Q23" s="95" t="s">
+      <c r="Q23" s="46" t="s">
         <v>318</v>
       </c>
-      <c r="R23" s="95" t="s">
+      <c r="R23" s="46" t="s">
         <v>319</v>
       </c>
-      <c r="S23" s="95" t="s">
+      <c r="S23" s="46" t="s">
         <v>320</v>
       </c>
-      <c r="T23" s="95" t="s">
+      <c r="T23" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="U23" s="95" t="s">
+      <c r="U23" s="46" t="s">
         <v>322</v>
       </c>
-      <c r="V23" s="95" t="s">
+      <c r="V23" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="W23" s="95" t="s">
+      <c r="W23" s="46" t="s">
         <v>324</v>
       </c>
-      <c r="X23" s="95" t="s">
+      <c r="X23" s="46" t="s">
         <v>325</v>
       </c>
-      <c r="Y23" s="95" t="s">
+      <c r="Y23" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="Z23" s="95" t="s">
+      <c r="Z23" s="46" t="s">
         <v>326</v>
       </c>
-      <c r="AA23" s="95" t="s">
+      <c r="AA23" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="AB23" s="95" t="s">
+      <c r="AB23" s="46" t="s">
         <v>327</v>
       </c>
-      <c r="AC23" s="95"/>
+      <c r="AC23" s="46"/>
       <c r="AR23" s="1"/>
       <c r="AT23" s="24"/>
     </row>
     <row r="24" spans="2:47" ht="30" customHeight="1">
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="72" t="s">
         <v>392</v>
       </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="96" t="s">
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="F24" s="96" t="s">
+      <c r="F24" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="G24" s="96" t="s">
+      <c r="G24" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="H24" s="96" t="s">
+      <c r="H24" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="I24" s="96" t="s">
+      <c r="I24" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="J24" s="96" t="s">
+      <c r="J24" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="K24" s="96" t="s">
+      <c r="K24" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="L24" s="96" t="s">
+      <c r="L24" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="M24" s="96" t="s">
+      <c r="M24" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="N24" s="96" t="s">
+      <c r="N24" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="O24" s="96" t="s">
+      <c r="O24" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="P24" s="96" t="s">
+      <c r="P24" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="Q24" s="96" t="s">
+      <c r="Q24" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="R24" s="96" t="s">
+      <c r="R24" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="S24" s="96" t="s">
+      <c r="S24" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="T24" s="96" t="s">
+      <c r="T24" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="U24" s="96" t="s">
+      <c r="U24" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="V24" s="96" t="s">
+      <c r="V24" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="W24" s="96" t="s">
+      <c r="W24" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="X24" s="96" t="s">
+      <c r="X24" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="Y24" s="96" t="s">
+      <c r="Y24" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="Z24" s="96" t="s">
+      <c r="Z24" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="AA24" s="96" t="s">
+      <c r="AA24" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="AB24" s="96" t="s">
+      <c r="AB24" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="AC24" s="96" t="s">
+      <c r="AC24" s="47" t="s">
         <v>400</v>
       </c>
       <c r="AR24" s="1"/>
@@ -4555,71 +5935,23 @@
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="AM4:AO4"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
     <mergeCell ref="Z9:AB9"/>
     <mergeCell ref="AC9:AE9"/>
     <mergeCell ref="AF9:AH9"/>
@@ -4640,26 +5972,74 @@
     <mergeCell ref="R4:T4"/>
     <mergeCell ref="Y6:AA6"/>
     <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="I4:K4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="AM4:AO4"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4669,13 +6049,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDC21CF-2121-504C-A275-7B846396F381}">
   <dimension ref="B1:AU24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20:AB24"/>
+      <pane ySplit="11" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF8" sqref="AF8:AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="26"/>
@@ -4688,418 +6068,418 @@
   <sheetData>
     <row r="1" spans="2:46" ht="27" thickBot="1"/>
     <row r="2" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B2" s="42">
+      <c r="B2" s="89">
         <v>1</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="42">
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="89">
         <v>2</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="62">
+      <c r="F2" s="90"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="100">
         <v>3</v>
       </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="62">
+      <c r="I2" s="101"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="100">
         <v>4</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="62">
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="100">
         <v>5</v>
       </c>
-      <c r="O2" s="63"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="62">
+      <c r="O2" s="101"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="100">
         <v>6</v>
       </c>
-      <c r="R2" s="63"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="62">
+      <c r="R2" s="101"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="100">
         <v>7</v>
       </c>
-      <c r="U2" s="63"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="45">
+      <c r="U2" s="101"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="103">
         <v>8</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="65">
+      <c r="X2" s="104"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="92">
         <v>9</v>
       </c>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="65">
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="92">
         <v>0</v>
       </c>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="68" t="s">
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="67"/>
+      <c r="AG2" s="93"/>
+      <c r="AH2" s="94"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AR2" s="24"/>
     </row>
     <row r="3" spans="2:46" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
-      <c r="B3" s="80"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="86" t="str">
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="98"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="86"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="79" t="str">
         <f xml:space="preserve"> AO15 &amp; "（" &amp; AO17 &amp; "）"</f>
         <v>陽平（â）</v>
       </c>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="86" t="str">
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="79" t="str">
         <f xml:space="preserve"> AP15 &amp; "（" &amp; AP17 &amp; "）"</f>
         <v>陽上（ǎ）</v>
       </c>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="86" t="str">
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="81"/>
+      <c r="AF3" s="79" t="str">
         <f xml:space="preserve"> AQ15 &amp; "（" &amp; AQ17 &amp; "）"</f>
         <v>陽去（ā）</v>
       </c>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="85"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="81"/>
       <c r="AR3" s="24"/>
     </row>
     <row r="4" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="42" t="s">
+      <c r="D4" s="90"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="42" t="s">
+      <c r="G4" s="90"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="42" t="s">
+      <c r="J4" s="90"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="42" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="42" t="s">
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="S4" s="43"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="45" t="s">
+      <c r="S4" s="90"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="V4" s="46"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="45" t="s">
+      <c r="V4" s="104"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="45" t="s">
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="105"/>
+      <c r="AA4" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="45" t="s">
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="105"/>
+      <c r="AD4" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="65" t="s">
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="105"/>
+      <c r="AG4" s="92" t="s">
         <v>357</v>
       </c>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="67"/>
-      <c r="AJ4" s="65" t="s">
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="92" t="s">
         <v>358</v>
       </c>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="67"/>
-      <c r="AM4" s="65" t="s">
+      <c r="AK4" s="93"/>
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="92" t="s">
         <v>360</v>
       </c>
-      <c r="AN4" s="66"/>
-      <c r="AO4" s="67"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="94"/>
       <c r="AR4" s="24"/>
     </row>
     <row r="5" spans="2:46" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
-      <c r="C5" s="80"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="79"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="78"/>
-      <c r="Z5" s="79"/>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="78"/>
-      <c r="AC5" s="79"/>
-      <c r="AD5" s="77"/>
-      <c r="AE5" s="78"/>
-      <c r="AF5" s="79"/>
-      <c r="AG5" s="86" t="str">
+      <c r="C5" s="82"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="85"/>
+      <c r="Y5" s="86"/>
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="85"/>
+      <c r="AB5" s="86"/>
+      <c r="AC5" s="87"/>
+      <c r="AD5" s="85"/>
+      <c r="AE5" s="86"/>
+      <c r="AF5" s="87"/>
+      <c r="AG5" s="79" t="str">
         <f xml:space="preserve"> AK15 &amp; "（" &amp; AK17 &amp; "）"</f>
         <v>陰平（a）</v>
       </c>
-      <c r="AH5" s="84"/>
-      <c r="AI5" s="85"/>
-      <c r="AJ5" s="86" t="str">
+      <c r="AH5" s="80"/>
+      <c r="AI5" s="81"/>
+      <c r="AJ5" s="79" t="str">
         <f xml:space="preserve"> AN15 &amp; "（" &amp; AN17 &amp; "）"</f>
         <v>陰入（ah）</v>
       </c>
-      <c r="AK5" s="84"/>
-      <c r="AL5" s="85"/>
-      <c r="AM5" s="86" t="str">
+      <c r="AK5" s="80"/>
+      <c r="AL5" s="81"/>
+      <c r="AM5" s="79" t="str">
         <f xml:space="preserve"> AM15 &amp; "（" &amp; AM17 &amp; "）"</f>
         <v>陰去（à）</v>
       </c>
-      <c r="AN5" s="84"/>
-      <c r="AO5" s="85"/>
+      <c r="AN5" s="80"/>
+      <c r="AO5" s="81"/>
       <c r="AR5" s="24"/>
     </row>
     <row r="6" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="C6" s="3"/>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="42" t="s">
+      <c r="E6" s="90"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="42" t="s">
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="43"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="42" t="s">
+      <c r="K6" s="90"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="43"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="42" t="s">
+      <c r="N6" s="90"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="42" t="s">
+      <c r="Q6" s="90"/>
+      <c r="R6" s="91"/>
+      <c r="S6" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="T6" s="43"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="45" t="s">
+      <c r="T6" s="90"/>
+      <c r="U6" s="91"/>
+      <c r="V6" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="W6" s="46"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="45" t="s">
+      <c r="W6" s="104"/>
+      <c r="X6" s="105"/>
+      <c r="Y6" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="45" t="s">
+      <c r="Z6" s="104"/>
+      <c r="AA6" s="105"/>
+      <c r="AB6" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="65" t="s">
+      <c r="AC6" s="104"/>
+      <c r="AD6" s="105"/>
+      <c r="AE6" s="92" t="s">
         <v>287</v>
       </c>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="67"/>
-      <c r="AH6" s="70" t="s">
+      <c r="AF6" s="93"/>
+      <c r="AG6" s="94"/>
+      <c r="AH6" s="106" t="s">
         <v>359</v>
       </c>
-      <c r="AI6" s="46"/>
-      <c r="AJ6" s="47"/>
+      <c r="AI6" s="104"/>
+      <c r="AJ6" s="105"/>
       <c r="AR6" s="24"/>
     </row>
     <row r="7" spans="2:46" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
-      <c r="D7" s="80"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="81"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="77"/>
-      <c r="W7" s="78"/>
-      <c r="X7" s="79"/>
-      <c r="Y7" s="77"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="79"/>
-      <c r="AB7" s="77"/>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="79"/>
-      <c r="AE7" s="86" t="str">
+      <c r="D7" s="82"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="85"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="87"/>
+      <c r="Y7" s="85"/>
+      <c r="Z7" s="86"/>
+      <c r="AA7" s="87"/>
+      <c r="AB7" s="85"/>
+      <c r="AC7" s="86"/>
+      <c r="AD7" s="87"/>
+      <c r="AE7" s="79" t="str">
         <f xml:space="preserve"> AR15 &amp; "（" &amp; AR17 &amp; "）"</f>
         <v>陽入（a̍h）</v>
       </c>
-      <c r="AF7" s="84"/>
-      <c r="AG7" s="85"/>
-      <c r="AH7" s="122" t="str">
+      <c r="AF7" s="80"/>
+      <c r="AG7" s="81"/>
+      <c r="AH7" s="114" t="str">
         <f xml:space="preserve"> AR15 &amp; "（" &amp; AR17 &amp; "）"</f>
         <v>陽入（a̍h）</v>
       </c>
-      <c r="AI7" s="120"/>
-      <c r="AJ7" s="121"/>
+      <c r="AI7" s="115"/>
+      <c r="AJ7" s="116"/>
       <c r="AR7" s="24"/>
     </row>
     <row r="8" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="42" t="s">
+      <c r="F8" s="90"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="43"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="42" t="s">
+      <c r="I8" s="90"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="43"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="42" t="s">
+      <c r="L8" s="90"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="43"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="42" t="s">
+      <c r="O8" s="90"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="R8" s="43"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="42" t="s">
+      <c r="R8" s="90"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="U8" s="43"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="45" t="s">
+      <c r="U8" s="90"/>
+      <c r="V8" s="91"/>
+      <c r="W8" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="45" t="s">
+      <c r="X8" s="104"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="103" t="s">
         <v>380</v>
       </c>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="45" t="s">
+      <c r="AA8" s="104"/>
+      <c r="AB8" s="105"/>
+      <c r="AC8" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="AD8" s="46"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="65" t="s">
+      <c r="AD8" s="104"/>
+      <c r="AE8" s="105"/>
+      <c r="AF8" s="92" t="s">
         <v>288</v>
       </c>
-      <c r="AG8" s="66"/>
-      <c r="AH8" s="67"/>
+      <c r="AG8" s="93"/>
+      <c r="AH8" s="94"/>
       <c r="AR8" s="24"/>
     </row>
     <row r="9" spans="2:46" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
-      <c r="E9" s="80"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="102"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="81"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="77"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="104"/>
-      <c r="AA9" s="105"/>
-      <c r="AB9" s="106"/>
-      <c r="AC9" s="77"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="79"/>
-      <c r="AF9" s="86" t="str">
+      <c r="E9" s="82"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="112"/>
+      <c r="S9" s="113"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="85"/>
+      <c r="X9" s="86"/>
+      <c r="Y9" s="87"/>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="108"/>
+      <c r="AB9" s="109"/>
+      <c r="AC9" s="85"/>
+      <c r="AD9" s="86"/>
+      <c r="AE9" s="87"/>
+      <c r="AF9" s="79" t="str">
         <f xml:space="preserve"> AL15 &amp; "（" &amp; AL17 &amp; "）"</f>
         <v>陰上（á）</v>
       </c>
-      <c r="AG9" s="84"/>
-      <c r="AH9" s="85"/>
+      <c r="AG9" s="80"/>
+      <c r="AH9" s="81"/>
       <c r="AR9" s="24"/>
     </row>
     <row r="10" spans="2:46" s="23" customFormat="1" ht="17" customHeight="1">
@@ -5109,299 +6489,299 @@
       <c r="AR11" s="24"/>
     </row>
     <row r="12" spans="2:46" ht="30" customHeight="1">
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="48" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="2:46" ht="30" customHeight="1">
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="75" t="s">
         <v>370</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="103"/>
-      <c r="S13" s="103"/>
-      <c r="T13" s="103"/>
-      <c r="U13" s="103"/>
-      <c r="V13" s="103"/>
-      <c r="W13" s="103"/>
-      <c r="X13" s="103"/>
-      <c r="Y13" s="103"/>
-      <c r="AH13" s="109" t="s">
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="AH13" s="78" t="s">
         <v>401</v>
       </c>
-      <c r="AI13" s="109"/>
-      <c r="AJ13" s="109"/>
-      <c r="AK13" s="110">
+      <c r="AI13" s="78"/>
+      <c r="AJ13" s="78"/>
+      <c r="AK13" s="53">
         <v>1</v>
       </c>
-      <c r="AL13" s="110">
+      <c r="AL13" s="53">
         <v>2</v>
       </c>
-      <c r="AM13" s="110">
+      <c r="AM13" s="53">
         <v>3</v>
       </c>
-      <c r="AN13" s="110">
+      <c r="AN13" s="53">
         <v>4</v>
       </c>
-      <c r="AO13" s="110">
+      <c r="AO13" s="53">
         <v>5</v>
       </c>
-      <c r="AP13" s="110">
+      <c r="AP13" s="53">
         <v>6</v>
       </c>
-      <c r="AQ13" s="110">
+      <c r="AQ13" s="53">
         <v>7</v>
       </c>
-      <c r="AR13" s="110">
+      <c r="AR13" s="53">
         <v>8</v>
       </c>
       <c r="AT13" s="24"/>
     </row>
     <row r="14" spans="2:46" ht="30" customHeight="1">
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="75" t="s">
         <v>397</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="91"/>
-      <c r="S14" s="91"/>
-      <c r="T14" s="91"/>
-      <c r="U14" s="91"/>
-      <c r="V14" s="91"/>
-      <c r="W14" s="91"/>
-      <c r="X14" s="91"/>
-      <c r="Y14" s="91"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
       <c r="Z14" s="16"/>
-      <c r="AH14" s="109" t="s">
+      <c r="AH14" s="78" t="s">
         <v>402</v>
       </c>
-      <c r="AI14" s="109"/>
-      <c r="AJ14" s="109"/>
-      <c r="AK14" s="111" t="s">
+      <c r="AI14" s="78"/>
+      <c r="AJ14" s="78"/>
+      <c r="AK14" s="54" t="s">
         <v>371</v>
       </c>
-      <c r="AL14" s="111" t="s">
+      <c r="AL14" s="54" t="s">
         <v>373</v>
       </c>
-      <c r="AM14" s="116" t="s">
+      <c r="AM14" s="59" t="s">
         <v>374</v>
       </c>
-      <c r="AN14" s="117" t="s">
+      <c r="AN14" s="60" t="s">
         <v>414</v>
       </c>
-      <c r="AO14" s="111" t="s">
+      <c r="AO14" s="54" t="s">
         <v>413</v>
       </c>
-      <c r="AP14" s="117" t="s">
+      <c r="AP14" s="60" t="s">
         <v>414</v>
       </c>
-      <c r="AQ14" s="118" t="s">
+      <c r="AQ14" s="61" t="s">
         <v>375</v>
       </c>
-      <c r="AR14" s="118" t="s">
+      <c r="AR14" s="61" t="s">
         <v>376</v>
       </c>
       <c r="AT14" s="24"/>
     </row>
     <row r="15" spans="2:46" ht="30" customHeight="1">
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="75" t="s">
         <v>378</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="92"/>
-      <c r="S15" s="92"/>
-      <c r="T15" s="92"/>
-      <c r="U15" s="92"/>
-      <c r="V15" s="92"/>
-      <c r="W15" s="92"/>
-      <c r="X15" s="92"/>
-      <c r="Y15" s="92"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
       <c r="Z15" s="16"/>
-      <c r="AH15" s="109" t="s">
+      <c r="AH15" s="78" t="s">
         <v>404</v>
       </c>
-      <c r="AI15" s="109"/>
-      <c r="AJ15" s="109"/>
-      <c r="AK15" s="112" t="s">
+      <c r="AI15" s="78"/>
+      <c r="AJ15" s="78"/>
+      <c r="AK15" s="55" t="s">
         <v>405</v>
       </c>
-      <c r="AL15" s="112" t="s">
+      <c r="AL15" s="55" t="s">
         <v>406</v>
       </c>
-      <c r="AM15" s="112" t="s">
+      <c r="AM15" s="55" t="s">
         <v>407</v>
       </c>
-      <c r="AN15" s="113" t="s">
+      <c r="AN15" s="56" t="s">
         <v>408</v>
       </c>
-      <c r="AO15" s="112" t="s">
+      <c r="AO15" s="55" t="s">
         <v>409</v>
       </c>
-      <c r="AP15" s="112" t="s">
+      <c r="AP15" s="55" t="s">
         <v>410</v>
       </c>
-      <c r="AQ15" s="112" t="s">
+      <c r="AQ15" s="55" t="s">
         <v>411</v>
       </c>
-      <c r="AR15" s="113" t="s">
+      <c r="AR15" s="56" t="s">
         <v>412</v>
       </c>
       <c r="AT15" s="24"/>
     </row>
     <row r="16" spans="2:46" ht="30" customHeight="1">
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="75" t="s">
         <v>391</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="92"/>
-      <c r="R16" s="92"/>
-      <c r="S16" s="92"/>
-      <c r="T16" s="92"/>
-      <c r="U16" s="92"/>
-      <c r="V16" s="92"/>
-      <c r="W16" s="92"/>
-      <c r="X16" s="92"/>
-      <c r="Y16" s="92"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
       <c r="Z16" s="16"/>
-      <c r="AH16" s="109" t="s">
+      <c r="AH16" s="78" t="s">
         <v>403</v>
       </c>
-      <c r="AI16" s="109"/>
-      <c r="AJ16" s="109"/>
-      <c r="AK16" s="114" t="s">
+      <c r="AI16" s="78"/>
+      <c r="AJ16" s="78"/>
+      <c r="AK16" s="57" t="s">
         <v>396</v>
       </c>
-      <c r="AL16" s="114" t="s">
+      <c r="AL16" s="57" t="s">
         <v>387</v>
       </c>
-      <c r="AM16" s="114" t="s">
+      <c r="AM16" s="57" t="s">
         <v>386</v>
       </c>
-      <c r="AN16" s="115" t="s">
+      <c r="AN16" s="58" t="s">
         <v>393</v>
       </c>
-      <c r="AO16" s="114" t="s">
+      <c r="AO16" s="57" t="s">
         <v>389</v>
       </c>
-      <c r="AP16" s="114" t="s">
+      <c r="AP16" s="57" t="s">
         <v>394</v>
       </c>
-      <c r="AQ16" s="114" t="s">
+      <c r="AQ16" s="57" t="s">
         <v>388</v>
       </c>
-      <c r="AR16" s="115" t="s">
+      <c r="AR16" s="58" t="s">
         <v>395</v>
       </c>
       <c r="AT16" s="24"/>
     </row>
     <row r="17" spans="2:47" ht="30" customHeight="1">
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="75" t="s">
         <v>392</v>
       </c>
-      <c r="C17" s="72"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="93"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="93"/>
-      <c r="U17" s="93"/>
-      <c r="V17" s="93"/>
-      <c r="W17" s="93"/>
-      <c r="X17" s="93"/>
-      <c r="Y17" s="93"/>
-      <c r="AH17" s="109" t="s">
+      <c r="C17" s="76"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="AH17" s="78" t="s">
         <v>423</v>
       </c>
-      <c r="AI17" s="109"/>
-      <c r="AJ17" s="109"/>
-      <c r="AK17" s="119" t="s">
+      <c r="AI17" s="78"/>
+      <c r="AJ17" s="78"/>
+      <c r="AK17" s="62" t="s">
         <v>415</v>
       </c>
-      <c r="AL17" s="119" t="s">
+      <c r="AL17" s="62" t="s">
         <v>416</v>
       </c>
-      <c r="AM17" s="119" t="s">
+      <c r="AM17" s="62" t="s">
         <v>417</v>
       </c>
-      <c r="AN17" s="119" t="s">
+      <c r="AN17" s="62" t="s">
         <v>418</v>
       </c>
-      <c r="AO17" s="119" t="s">
+      <c r="AO17" s="62" t="s">
         <v>420</v>
       </c>
-      <c r="AP17" s="119" t="s">
+      <c r="AP17" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="AQ17" s="119" t="s">
+      <c r="AQ17" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="AR17" s="119" t="s">
+      <c r="AR17" s="62" t="s">
         <v>419</v>
       </c>
       <c r="AU17" s="24"/>
@@ -5411,183 +6791,183 @@
       <c r="AU18" s="24"/>
     </row>
     <row r="19" spans="2:47" ht="30" customHeight="1">
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="48" t="s">
         <v>116</v>
       </c>
       <c r="AR19" s="1"/>
       <c r="AT19" s="24"/>
     </row>
     <row r="20" spans="2:47" ht="30" customHeight="1">
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="75" t="s">
         <v>370</v>
       </c>
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="103"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="103"/>
-      <c r="R20" s="103"/>
-      <c r="S20" s="103"/>
-      <c r="T20" s="103"/>
-      <c r="U20" s="103"/>
-      <c r="V20" s="103"/>
-      <c r="W20" s="103"/>
-      <c r="X20" s="103"/>
-      <c r="Y20" s="103"/>
-      <c r="Z20" s="103"/>
-      <c r="AA20" s="103"/>
-      <c r="AB20" s="103"/>
-      <c r="AC20" s="103"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="51"/>
+      <c r="AB20" s="51"/>
+      <c r="AC20" s="51"/>
       <c r="AR20" s="1"/>
       <c r="AT20" s="24"/>
     </row>
     <row r="21" spans="2:47" ht="30" customHeight="1">
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="72" t="s">
         <v>377</v>
       </c>
-      <c r="C21" s="75"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="94"/>
-      <c r="T21" s="94"/>
-      <c r="U21" s="94"/>
-      <c r="V21" s="94"/>
-      <c r="W21" s="94"/>
-      <c r="X21" s="94"/>
-      <c r="Y21" s="94"/>
-      <c r="Z21" s="94"/>
-      <c r="AA21" s="94"/>
-      <c r="AB21" s="94"/>
-      <c r="AC21" s="108" t="s">
+      <c r="C21" s="73"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="52" t="s">
         <v>399</v>
       </c>
       <c r="AR21" s="1"/>
       <c r="AT21" s="24"/>
     </row>
     <row r="22" spans="2:47" ht="30" customHeight="1">
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="72" t="s">
         <v>378</v>
       </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="94"/>
-      <c r="T22" s="94"/>
-      <c r="U22" s="94"/>
-      <c r="V22" s="94"/>
-      <c r="W22" s="94"/>
-      <c r="X22" s="94"/>
-      <c r="Y22" s="94"/>
-      <c r="Z22" s="94"/>
-      <c r="AA22" s="94"/>
-      <c r="AB22" s="94"/>
-      <c r="AC22" s="94" t="s">
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="45" t="s">
         <v>1</v>
       </c>
       <c r="AR22" s="1"/>
       <c r="AT22" s="24"/>
     </row>
     <row r="23" spans="2:47" ht="30" customHeight="1">
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="72" t="s">
         <v>391</v>
       </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="95"/>
-      <c r="AA23" s="95"/>
-      <c r="AB23" s="95"/>
-      <c r="AC23" s="95"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="46"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="46"/>
+      <c r="AC23" s="46"/>
       <c r="AR23" s="1"/>
       <c r="AT23" s="24"/>
     </row>
     <row r="24" spans="2:47" ht="30" customHeight="1">
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="72" t="s">
         <v>392</v>
       </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="96"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="96"/>
-      <c r="T24" s="96"/>
-      <c r="U24" s="96"/>
-      <c r="V24" s="96"/>
-      <c r="W24" s="96"/>
-      <c r="X24" s="96"/>
-      <c r="Y24" s="96"/>
-      <c r="Z24" s="96"/>
-      <c r="AA24" s="96"/>
-      <c r="AB24" s="96"/>
-      <c r="AC24" s="96" t="s">
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="47"/>
+      <c r="Y24" s="47"/>
+      <c r="Z24" s="47"/>
+      <c r="AA24" s="47"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="47" t="s">
         <v>400</v>
       </c>
       <c r="AR24" s="1"/>
@@ -5595,6 +6975,98 @@
     </row>
   </sheetData>
   <mergeCells count="105">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AM4:AO4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AG4:AI4"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="AH17:AJ17"/>
@@ -5608,12 +7080,1785 @@
     <mergeCell ref="AH15:AJ15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="AH16:AJ16"/>
+  </mergeCells>
+  <phoneticPr fontId="30" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB406015-C86B-0E4D-94A3-30437A254441}">
+  <dimension ref="B1:AR33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AR9" sqref="AR9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="26"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
+    <col min="2" max="43" width="3.6640625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="9" style="24"/>
+    <col min="45" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:44" ht="27" thickBot="1"/>
+    <row r="2" spans="2:44" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="B2" s="89">
+        <v>1</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="89">
+        <v>2</v>
+      </c>
+      <c r="F2" s="90"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="100">
+        <v>3</v>
+      </c>
+      <c r="I2" s="101"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="100">
+        <v>4</v>
+      </c>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="100">
+        <v>5</v>
+      </c>
+      <c r="O2" s="101"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="100">
+        <v>6</v>
+      </c>
+      <c r="R2" s="101"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="100">
+        <v>7</v>
+      </c>
+      <c r="U2" s="101"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="103">
+        <v>8</v>
+      </c>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="92">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="93"/>
+      <c r="AH2" s="94"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AR2" s="24"/>
+    </row>
+    <row r="3" spans="2:44" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
+      <c r="B3" s="82" t="str">
+        <f>E13</f>
+        <v>ㄅ</v>
+      </c>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="82" t="str">
+        <f>H13</f>
+        <v>ㄉ</v>
+      </c>
+      <c r="F3" s="83"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="118"/>
+      <c r="S3" s="119"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="118"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="85" t="str">
+        <f>C30</f>
+        <v>ㄚ</v>
+      </c>
+      <c r="X3" s="86"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="120" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="120" t="s">
+        <v>361</v>
+      </c>
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="123" t="s">
+        <v>383</v>
+      </c>
+      <c r="AG3" s="121"/>
+      <c r="AH3" s="122"/>
+      <c r="AR3" s="24"/>
+    </row>
+    <row r="4" spans="2:44" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="C4" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="90"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="90"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="90"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="90"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" s="104"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="105"/>
+      <c r="AA4" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="105"/>
+      <c r="AD4" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="105"/>
+      <c r="AG4" s="92" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="92" t="s">
+        <v>358</v>
+      </c>
+      <c r="AK4" s="93"/>
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="92" t="s">
+        <v>360</v>
+      </c>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="94"/>
+      <c r="AR4" s="24"/>
+    </row>
+    <row r="5" spans="2:44" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
+      <c r="C5" s="82" t="str">
+        <f>F13</f>
+        <v>ㄆ</v>
+      </c>
+      <c r="D5" s="83"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="82" t="str">
+        <f>I13</f>
+        <v>ㄊ</v>
+      </c>
+      <c r="G5" s="83"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="82" t="str">
+        <f>K13</f>
+        <v>ㄍ</v>
+      </c>
+      <c r="J5" s="83"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="82" t="str">
+        <f>P24</f>
+        <v>ㄐ</v>
+      </c>
+      <c r="M5" s="83"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="82" t="str">
+        <f>N13</f>
+        <v>ㄗ</v>
+      </c>
+      <c r="S5" s="83"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="85" t="str">
+        <f>S13</f>
+        <v>ㄧ</v>
+      </c>
+      <c r="V5" s="86"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="85" t="str">
+        <f>V13</f>
+        <v>ㆦ</v>
+      </c>
+      <c r="Y5" s="86"/>
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="127"/>
+      <c r="AB5" s="128"/>
+      <c r="AC5" s="129"/>
+      <c r="AD5" s="85" t="str">
+        <f xml:space="preserve"> AB13</f>
+        <v>ㄣ</v>
+      </c>
+      <c r="AE5" s="86"/>
+      <c r="AF5" s="87"/>
+      <c r="AG5" s="79" t="s">
+        <v>362</v>
+      </c>
+      <c r="AH5" s="80"/>
+      <c r="AI5" s="81"/>
+      <c r="AJ5" s="79" t="s">
+        <v>365</v>
+      </c>
+      <c r="AK5" s="80"/>
+      <c r="AL5" s="81"/>
+      <c r="AM5" s="79" t="s">
+        <v>364</v>
+      </c>
+      <c r="AN5" s="80"/>
+      <c r="AO5" s="81"/>
+      <c r="AR5" s="24"/>
+    </row>
+    <row r="6" spans="2:44" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="C6" s="3"/>
+      <c r="D6" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="90"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="90"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="90"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="91"/>
+      <c r="S6" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" s="90"/>
+      <c r="U6" s="91"/>
+      <c r="V6" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6" s="104"/>
+      <c r="X6" s="105"/>
+      <c r="Y6" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z6" s="104"/>
+      <c r="AA6" s="105"/>
+      <c r="AB6" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC6" s="104"/>
+      <c r="AD6" s="105"/>
+      <c r="AE6" s="92" t="s">
+        <v>287</v>
+      </c>
+      <c r="AF6" s="93"/>
+      <c r="AG6" s="94"/>
+      <c r="AH6" s="106" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI6" s="104"/>
+      <c r="AJ6" s="105"/>
+      <c r="AR6" s="24"/>
+    </row>
+    <row r="7" spans="2:44" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
+      <c r="D7" s="82" t="str">
+        <f>F24</f>
+        <v>ㄇ</v>
+      </c>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="82" t="str">
+        <f>I24</f>
+        <v>ㄋ</v>
+      </c>
+      <c r="H7" s="83"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="82" t="str">
+        <f>L13</f>
+        <v>ㄎ</v>
+      </c>
+      <c r="K7" s="83"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="82" t="str">
+        <f>R24</f>
+        <v>ㄑ</v>
+      </c>
+      <c r="N7" s="83"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="130"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="82" t="str">
+        <f>O13</f>
+        <v>ㄘ</v>
+      </c>
+      <c r="T7" s="83"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="85" t="str">
+        <f>T13</f>
+        <v>ㄨ</v>
+      </c>
+      <c r="W7" s="86"/>
+      <c r="X7" s="87"/>
+      <c r="Y7" s="85" t="str">
+        <f>W13</f>
+        <v>ㄜ</v>
+      </c>
+      <c r="Z7" s="86"/>
+      <c r="AA7" s="87"/>
+      <c r="AB7" s="131"/>
+      <c r="AC7" s="128"/>
+      <c r="AD7" s="129"/>
+      <c r="AE7" s="120" t="s">
+        <v>363</v>
+      </c>
+      <c r="AF7" s="121"/>
+      <c r="AG7" s="122"/>
+      <c r="AH7" s="110" t="s">
+        <v>384</v>
+      </c>
+      <c r="AI7" s="80"/>
+      <c r="AJ7" s="81"/>
+      <c r="AR7" s="24"/>
+    </row>
+    <row r="8" spans="2:44" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="E8" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="90"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="90"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="90"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="90"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" s="90"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8" s="90"/>
+      <c r="V8" s="91"/>
+      <c r="W8" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" s="104"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="103" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA8" s="104"/>
+      <c r="AB8" s="105"/>
+      <c r="AC8" s="103" t="s">
+        <v>381</v>
+      </c>
+      <c r="AD8" s="104"/>
+      <c r="AE8" s="105"/>
+      <c r="AF8" s="92" t="s">
+        <v>288</v>
+      </c>
+      <c r="AG8" s="93"/>
+      <c r="AH8" s="94"/>
+      <c r="AR8" s="24"/>
+    </row>
+    <row r="9" spans="2:44" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
+      <c r="E9" s="82" t="str">
+        <f>G13</f>
+        <v>ㆠ</v>
+      </c>
+      <c r="F9" s="83"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="82" t="str">
+        <f>J24</f>
+        <v>ㄌ</v>
+      </c>
+      <c r="I9" s="83"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="82" t="str">
+        <f>R13</f>
+        <v>ㄏ</v>
+      </c>
+      <c r="L9" s="83"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="82" t="str">
+        <f>S24</f>
+        <v>ㄒ</v>
+      </c>
+      <c r="O9" s="83"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="124"/>
+      <c r="R9" s="125"/>
+      <c r="S9" s="126"/>
+      <c r="T9" s="82" t="str">
+        <f>Q13</f>
+        <v>ㄙ</v>
+      </c>
+      <c r="U9" s="83"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="85" t="str">
+        <f>AA13</f>
+        <v>ㆬ</v>
+      </c>
+      <c r="X9" s="86"/>
+      <c r="Y9" s="87"/>
+      <c r="Z9" s="85" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="87"/>
+      <c r="AC9" s="127"/>
+      <c r="AD9" s="128"/>
+      <c r="AE9" s="129"/>
+      <c r="AF9" s="85" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="87"/>
+      <c r="AR9" s="24"/>
+    </row>
+    <row r="10" spans="2:44" s="23" customFormat="1" ht="17" customHeight="1">
+      <c r="AR10" s="24"/>
+    </row>
+    <row r="11" spans="2:44" s="23" customFormat="1" ht="40" customHeight="1">
+      <c r="AR11" s="24"/>
+    </row>
+    <row r="12" spans="2:44" ht="24" customHeight="1">
+      <c r="B12" s="75" t="s">
+        <v>368</v>
+      </c>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="40">
+        <v>1</v>
+      </c>
+      <c r="F12" s="40">
+        <v>2</v>
+      </c>
+      <c r="G12" s="40">
+        <v>3</v>
+      </c>
+      <c r="H12" s="40">
+        <v>4</v>
+      </c>
+      <c r="I12" s="40">
+        <v>5</v>
+      </c>
+      <c r="J12" s="40">
+        <v>6</v>
+      </c>
+      <c r="K12" s="40">
+        <v>7</v>
+      </c>
+      <c r="L12" s="40">
+        <v>8</v>
+      </c>
+      <c r="M12" s="40">
+        <v>9</v>
+      </c>
+      <c r="N12" s="40">
+        <v>10</v>
+      </c>
+      <c r="O12" s="40">
+        <v>11</v>
+      </c>
+      <c r="P12" s="40">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="40">
+        <v>13</v>
+      </c>
+      <c r="R12" s="40">
+        <v>14</v>
+      </c>
+      <c r="S12" s="40">
+        <v>15</v>
+      </c>
+      <c r="T12" s="40">
+        <v>16</v>
+      </c>
+      <c r="U12" s="40">
+        <v>17</v>
+      </c>
+      <c r="V12" s="40">
+        <v>18</v>
+      </c>
+      <c r="W12" s="40">
+        <v>19</v>
+      </c>
+      <c r="X12" s="40">
+        <v>20</v>
+      </c>
+      <c r="Y12" s="40">
+        <v>21</v>
+      </c>
+      <c r="Z12" s="40">
+        <v>22</v>
+      </c>
+      <c r="AA12" s="41">
+        <v>23</v>
+      </c>
+      <c r="AB12" s="41">
+        <v>24</v>
+      </c>
+      <c r="AC12" s="41">
+        <v>25</v>
+      </c>
+      <c r="AD12" s="41">
+        <v>26</v>
+      </c>
+      <c r="AI12" s="49">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="49">
+        <v>2</v>
+      </c>
+      <c r="AK12" s="49">
+        <v>3</v>
+      </c>
+      <c r="AL12" s="49">
+        <v>4</v>
+      </c>
+      <c r="AM12" s="49">
+        <v>5</v>
+      </c>
+      <c r="AN12" s="49">
+        <v>6</v>
+      </c>
+      <c r="AO12" s="49">
+        <v>7</v>
+      </c>
+      <c r="AP12" s="49">
+        <v>8</v>
+      </c>
+      <c r="AQ12" s="24"/>
+      <c r="AR12" s="1"/>
+    </row>
+    <row r="13" spans="2:44" ht="24" customHeight="1">
+      <c r="B13" s="72" t="s">
+        <v>370</v>
+      </c>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="O13" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q13" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="R13" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="S13" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="T13" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="U13" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="V13" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="W13" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="X13" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y13" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z13" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA13" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB13" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC13" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD13" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="AI13" s="65" t="s">
+        <v>371</v>
+      </c>
+      <c r="AJ13" s="66" t="s">
+        <v>373</v>
+      </c>
+      <c r="AK13" s="67" t="s">
+        <v>374</v>
+      </c>
+      <c r="AL13" s="68"/>
+      <c r="AM13" s="65" t="s">
+        <v>372</v>
+      </c>
+      <c r="AN13" s="69"/>
+      <c r="AO13" s="70" t="s">
+        <v>375</v>
+      </c>
+      <c r="AP13" s="71" t="s">
+        <v>376</v>
+      </c>
+      <c r="AQ13" s="24"/>
+      <c r="AR13" s="1"/>
+    </row>
+    <row r="14" spans="2:44" ht="24" customHeight="1">
+      <c r="B14" s="72" t="s">
+        <v>378</v>
+      </c>
+      <c r="C14" s="73"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="M14" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="N14" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="O14" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="P14" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q14" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="R14" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="S14" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="T14" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="U14" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="V14" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="W14" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="X14" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y14" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z14" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA14" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB14" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC14" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="AD14" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="AI14" s="50"/>
+      <c r="AJ14" s="63">
+        <v>4</v>
+      </c>
+      <c r="AK14" s="63">
+        <v>3</v>
+      </c>
+      <c r="AL14" s="64">
+        <v>7</v>
+      </c>
+      <c r="AM14" s="63">
+        <v>6</v>
+      </c>
+      <c r="AN14" s="50"/>
+      <c r="AO14" s="63">
+        <v>5</v>
+      </c>
+      <c r="AP14" s="64">
+        <v>7</v>
+      </c>
+      <c r="AQ14" s="24"/>
+      <c r="AR14" s="1"/>
+    </row>
+    <row r="15" spans="2:44" ht="24" customHeight="1">
+      <c r="B15" s="72" t="s">
+        <v>377</v>
+      </c>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="N15" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="O15" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="P15" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q15" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="S15" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="V15" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="W15" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="X15" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y15" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z15" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA15" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB15" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC15" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD15" s="38"/>
+      <c r="AQ15" s="24"/>
+      <c r="AR15" s="1"/>
+    </row>
+    <row r="16" spans="2:44" ht="24" customHeight="1">
+      <c r="B16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="32" t="str">
+        <f>U13</f>
+        <v>ㄚ</v>
+      </c>
+      <c r="AD16" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE16" s="34" t="str">
+        <f>D30</f>
+        <v>ㆩ</v>
+      </c>
+      <c r="AQ16" s="24"/>
+      <c r="AR16" s="1"/>
+    </row>
+    <row r="17" spans="2:44" ht="24" customHeight="1">
+      <c r="B17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="32" t="str">
+        <f>V13</f>
+        <v>ㆦ</v>
+      </c>
+      <c r="AD17" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE17" s="34" t="str">
+        <f>F30</f>
+        <v>ㆧ</v>
+      </c>
+      <c r="AQ17" s="24"/>
+      <c r="AR17" s="1"/>
+    </row>
+    <row r="18" spans="2:44" ht="24" customHeight="1">
+      <c r="B18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="32" t="str">
+        <f>X13</f>
+        <v>ㆤ</v>
+      </c>
+      <c r="AD18" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE18" s="34" t="str">
+        <f>I30</f>
+        <v>ㆥ</v>
+      </c>
+      <c r="AF18" s="33"/>
+      <c r="AQ18" s="24"/>
+      <c r="AR18" s="1"/>
+    </row>
+    <row r="19" spans="2:44" ht="24" customHeight="1">
+      <c r="B19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="32" t="str">
+        <f>Y13</f>
+        <v>ㄞ</v>
+      </c>
+      <c r="AD19" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE19" s="34" t="str">
+        <f>K30</f>
+        <v>ㆮ</v>
+      </c>
+      <c r="AQ19" s="24"/>
+      <c r="AR19" s="1"/>
+    </row>
+    <row r="20" spans="2:44" ht="24" customHeight="1">
+      <c r="B20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32" t="str">
+        <f>Z13</f>
+        <v>ㄠ</v>
+      </c>
+      <c r="AD20" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE20" s="34" t="str">
+        <f>M30</f>
+        <v>ㆯ</v>
+      </c>
+      <c r="AQ20" s="24"/>
+      <c r="AR20" s="1"/>
+    </row>
+    <row r="21" spans="2:44" ht="24" customHeight="1">
+      <c r="B21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32" t="str">
+        <f>S13</f>
+        <v>ㄧ</v>
+      </c>
+      <c r="AD21" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE21" s="34" t="str">
+        <f>X30</f>
+        <v>ㆪ</v>
+      </c>
+      <c r="AQ21" s="24"/>
+      <c r="AR21" s="1"/>
+    </row>
+    <row r="22" spans="2:44" ht="24" customHeight="1">
+      <c r="B22" s="31"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="32"/>
+      <c r="AC22" s="32" t="str">
+        <f>T13</f>
+        <v>ㄨ</v>
+      </c>
+      <c r="AD22" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE22" s="34" t="str">
+        <f>Z30</f>
+        <v>ㆫ</v>
+      </c>
+    </row>
+    <row r="23" spans="2:44" ht="24" customHeight="1">
+      <c r="C23" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="2:44" ht="24" customHeight="1">
+      <c r="C24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="2:44" ht="24" customHeight="1">
+      <c r="C25" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="N25" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="O25" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="P25" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q25" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="R25" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="S25" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="T25" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="U25" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="V25" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="W25" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="X25" s="16"/>
+    </row>
+    <row r="26" spans="2:44" ht="27">
+      <c r="C26" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="N26" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="O26" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="P26" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q26" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="R26" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="S26" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="T26" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="U26" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="V26" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="W26" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="X26" s="16"/>
+    </row>
+    <row r="27" spans="2:44">
+      <c r="C27" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="M27" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="N27" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="O27" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="P27" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q27" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="R27" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="S27" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="T27" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="U27" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="V27" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="W27" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="2:44">
+      <c r="C29" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="2:44">
+      <c r="C30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="2:44">
+      <c r="C31" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="N31" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="O31" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="P31" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q31" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="R31" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="S31" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="T31" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="U31" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="V31" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="W31" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="X31" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y31" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z31" s="19" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="32" spans="2:44">
+      <c r="C32" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="M32" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="N32" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="O32" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="P32" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q32" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="R32" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="S32" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="T32" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="U32" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="V32" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="W32" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="X32" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y32" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z32" s="17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="33" spans="3:26">
+      <c r="C33" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="K33" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="L33" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="M33" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="N33" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="O33" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="P33" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q33" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="R33" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="S33" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="T33" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="U33" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="V33" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="W33" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="X33" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y33" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z33" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="W9:Y9"/>
     <mergeCell ref="Z9:AB9"/>
     <mergeCell ref="AC9:AE9"/>
     <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="AH13:AJ13"/>
     <mergeCell ref="W8:Y8"/>
     <mergeCell ref="Z8:AB8"/>
     <mergeCell ref="AC8:AE8"/>
@@ -5694,1877 +8939,12 @@
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:P3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-  </mergeCells>
-  <phoneticPr fontId="30" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB406015-C86B-0E4D-94A3-30437A254441}">
-  <dimension ref="B1:AR33"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AR9" sqref="AR9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="26"/>
-  <cols>
-    <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
-    <col min="2" max="43" width="3.6640625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="9" style="24"/>
-    <col min="45" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:44" ht="27" thickBot="1"/>
-    <row r="2" spans="2:44" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B2" s="42">
-        <v>1</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="42">
-        <v>2</v>
-      </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="62">
-        <v>3</v>
-      </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="62">
-        <v>4</v>
-      </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="62">
-        <v>5</v>
-      </c>
-      <c r="O2" s="63"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="62">
-        <v>6</v>
-      </c>
-      <c r="R2" s="63"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="62">
-        <v>7</v>
-      </c>
-      <c r="U2" s="63"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="45">
-        <v>8</v>
-      </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="65">
-        <v>9</v>
-      </c>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="65">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AR2" s="24"/>
-    </row>
-    <row r="3" spans="2:44" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
-      <c r="B3" s="80" t="str">
-        <f>E13</f>
-        <v>ㄅ</v>
-      </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="80" t="str">
-        <f>H13</f>
-        <v>ㄉ</v>
-      </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="77" t="str">
-        <f>C30</f>
-        <v>ㄚ</v>
-      </c>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="59" t="s">
-        <v>385</v>
-      </c>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="59" t="s">
-        <v>361</v>
-      </c>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="69" t="s">
-        <v>383</v>
-      </c>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="61"/>
-      <c r="AR3" s="24"/>
-    </row>
-    <row r="4" spans="2:44" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="C4" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="43"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="V4" s="46"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="65" t="s">
-        <v>357</v>
-      </c>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="67"/>
-      <c r="AJ4" s="65" t="s">
-        <v>358</v>
-      </c>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="67"/>
-      <c r="AM4" s="65" t="s">
-        <v>360</v>
-      </c>
-      <c r="AN4" s="66"/>
-      <c r="AO4" s="67"/>
-      <c r="AR4" s="24"/>
-    </row>
-    <row r="5" spans="2:44" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
-      <c r="C5" s="80" t="str">
-        <f>F13</f>
-        <v>ㄆ</v>
-      </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="80" t="str">
-        <f>I13</f>
-        <v>ㄊ</v>
-      </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="80" t="str">
-        <f>K13</f>
-        <v>ㄍ</v>
-      </c>
-      <c r="J5" s="81"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="80" t="str">
-        <f>P24</f>
-        <v>ㄐ</v>
-      </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="80" t="str">
-        <f>N13</f>
-        <v>ㄗ</v>
-      </c>
-      <c r="S5" s="81"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="77" t="str">
-        <f>S13</f>
-        <v>ㄧ</v>
-      </c>
-      <c r="V5" s="78"/>
-      <c r="W5" s="79"/>
-      <c r="X5" s="77" t="str">
-        <f>V13</f>
-        <v>ㆦ</v>
-      </c>
-      <c r="Y5" s="78"/>
-      <c r="Z5" s="79"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="77" t="str">
-        <f xml:space="preserve"> AB13</f>
-        <v>ㄣ</v>
-      </c>
-      <c r="AE5" s="78"/>
-      <c r="AF5" s="79"/>
-      <c r="AG5" s="86" t="s">
-        <v>362</v>
-      </c>
-      <c r="AH5" s="84"/>
-      <c r="AI5" s="85"/>
-      <c r="AJ5" s="86" t="s">
-        <v>365</v>
-      </c>
-      <c r="AK5" s="84"/>
-      <c r="AL5" s="85"/>
-      <c r="AM5" s="86" t="s">
-        <v>364</v>
-      </c>
-      <c r="AN5" s="84"/>
-      <c r="AO5" s="85"/>
-      <c r="AR5" s="24"/>
-    </row>
-    <row r="6" spans="2:44" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="C6" s="3"/>
-      <c r="D6" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="43"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="43"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="T6" s="43"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="W6" s="46"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="65" t="s">
-        <v>287</v>
-      </c>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="67"/>
-      <c r="AH6" s="70" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI6" s="46"/>
-      <c r="AJ6" s="47"/>
-      <c r="AR6" s="24"/>
-    </row>
-    <row r="7" spans="2:44" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
-      <c r="D7" s="80" t="str">
-        <f>F24</f>
-        <v>ㄇ</v>
-      </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="80" t="str">
-        <f>I24</f>
-        <v>ㄋ</v>
-      </c>
-      <c r="H7" s="81"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="80" t="str">
-        <f>L13</f>
-        <v>ㄎ</v>
-      </c>
-      <c r="K7" s="81"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="80" t="str">
-        <f>R24</f>
-        <v>ㄑ</v>
-      </c>
-      <c r="N7" s="81"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="80" t="str">
-        <f>O13</f>
-        <v>ㄘ</v>
-      </c>
-      <c r="T7" s="81"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="77" t="str">
-        <f>T13</f>
-        <v>ㄨ</v>
-      </c>
-      <c r="W7" s="78"/>
-      <c r="X7" s="79"/>
-      <c r="Y7" s="77" t="str">
-        <f>W13</f>
-        <v>ㄜ</v>
-      </c>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="79"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="49"/>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="59" t="s">
-        <v>363</v>
-      </c>
-      <c r="AF7" s="60"/>
-      <c r="AG7" s="61"/>
-      <c r="AH7" s="83" t="s">
-        <v>384</v>
-      </c>
-      <c r="AI7" s="84"/>
-      <c r="AJ7" s="85"/>
-      <c r="AR7" s="24"/>
-    </row>
-    <row r="8" spans="2:44" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="E8" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="43"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="43"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" s="43"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="R8" s="43"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="U8" s="43"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="45" t="s">
-        <v>380</v>
-      </c>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="45" t="s">
-        <v>381</v>
-      </c>
-      <c r="AD8" s="46"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="65" t="s">
-        <v>288</v>
-      </c>
-      <c r="AG8" s="66"/>
-      <c r="AH8" s="67"/>
-      <c r="AR8" s="24"/>
-    </row>
-    <row r="9" spans="2:44" s="23" customFormat="1" ht="40" customHeight="1" thickBot="1">
-      <c r="E9" s="80" t="str">
-        <f>G13</f>
-        <v>ㆠ</v>
-      </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="80" t="str">
-        <f>J24</f>
-        <v>ㄌ</v>
-      </c>
-      <c r="I9" s="81"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="80" t="str">
-        <f>R13</f>
-        <v>ㄏ</v>
-      </c>
-      <c r="L9" s="81"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="80" t="str">
-        <f>S24</f>
-        <v>ㄒ</v>
-      </c>
-      <c r="O9" s="81"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="80" t="str">
-        <f>Q13</f>
-        <v>ㄙ</v>
-      </c>
-      <c r="U9" s="81"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="77" t="str">
-        <f>AA13</f>
-        <v>ㆬ</v>
-      </c>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="77" t="s">
-        <v>379</v>
-      </c>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="79"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="49"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="77" t="s">
-        <v>382</v>
-      </c>
-      <c r="AG9" s="78"/>
-      <c r="AH9" s="79"/>
-      <c r="AR9" s="24"/>
-    </row>
-    <row r="10" spans="2:44" s="23" customFormat="1" ht="17" customHeight="1">
-      <c r="AR10" s="24"/>
-    </row>
-    <row r="11" spans="2:44" s="23" customFormat="1" ht="40" customHeight="1">
-      <c r="AR11" s="24"/>
-    </row>
-    <row r="12" spans="2:44" ht="24" customHeight="1">
-      <c r="B12" s="71" t="s">
-        <v>368</v>
-      </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="40">
-        <v>1</v>
-      </c>
-      <c r="F12" s="40">
-        <v>2</v>
-      </c>
-      <c r="G12" s="40">
-        <v>3</v>
-      </c>
-      <c r="H12" s="40">
-        <v>4</v>
-      </c>
-      <c r="I12" s="40">
-        <v>5</v>
-      </c>
-      <c r="J12" s="40">
-        <v>6</v>
-      </c>
-      <c r="K12" s="40">
-        <v>7</v>
-      </c>
-      <c r="L12" s="40">
-        <v>8</v>
-      </c>
-      <c r="M12" s="40">
-        <v>9</v>
-      </c>
-      <c r="N12" s="40">
-        <v>10</v>
-      </c>
-      <c r="O12" s="40">
-        <v>11</v>
-      </c>
-      <c r="P12" s="40">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="40">
-        <v>13</v>
-      </c>
-      <c r="R12" s="40">
-        <v>14</v>
-      </c>
-      <c r="S12" s="40">
-        <v>15</v>
-      </c>
-      <c r="T12" s="40">
-        <v>16</v>
-      </c>
-      <c r="U12" s="40">
-        <v>17</v>
-      </c>
-      <c r="V12" s="40">
-        <v>18</v>
-      </c>
-      <c r="W12" s="40">
-        <v>19</v>
-      </c>
-      <c r="X12" s="40">
-        <v>20</v>
-      </c>
-      <c r="Y12" s="40">
-        <v>21</v>
-      </c>
-      <c r="Z12" s="40">
-        <v>22</v>
-      </c>
-      <c r="AA12" s="41">
-        <v>23</v>
-      </c>
-      <c r="AB12" s="41">
-        <v>24</v>
-      </c>
-      <c r="AC12" s="41">
-        <v>25</v>
-      </c>
-      <c r="AD12" s="41">
-        <v>26</v>
-      </c>
-      <c r="AI12" s="98">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="98">
-        <v>2</v>
-      </c>
-      <c r="AK12" s="98">
-        <v>3</v>
-      </c>
-      <c r="AL12" s="98">
-        <v>4</v>
-      </c>
-      <c r="AM12" s="98">
-        <v>5</v>
-      </c>
-      <c r="AN12" s="98">
-        <v>6</v>
-      </c>
-      <c r="AO12" s="98">
-        <v>7</v>
-      </c>
-      <c r="AP12" s="98">
-        <v>8</v>
-      </c>
-      <c r="AQ12" s="24"/>
-      <c r="AR12" s="1"/>
-    </row>
-    <row r="13" spans="2:44" ht="24" customHeight="1">
-      <c r="B13" s="74" t="s">
-        <v>370</v>
-      </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="M13" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="N13" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="O13" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="P13" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q13" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="R13" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="S13" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="T13" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="U13" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="V13" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="W13" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="X13" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y13" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z13" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA13" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB13" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC13" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD13" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="AI13" s="125" t="s">
-        <v>371</v>
-      </c>
-      <c r="AJ13" s="126" t="s">
-        <v>373</v>
-      </c>
-      <c r="AK13" s="127" t="s">
-        <v>374</v>
-      </c>
-      <c r="AL13" s="128"/>
-      <c r="AM13" s="125" t="s">
-        <v>372</v>
-      </c>
-      <c r="AN13" s="129"/>
-      <c r="AO13" s="130" t="s">
-        <v>375</v>
-      </c>
-      <c r="AP13" s="131" t="s">
-        <v>376</v>
-      </c>
-      <c r="AQ13" s="24"/>
-      <c r="AR13" s="1"/>
-    </row>
-    <row r="14" spans="2:44" ht="24" customHeight="1">
-      <c r="B14" s="74" t="s">
-        <v>378</v>
-      </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="K14" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="L14" s="35" t="s">
-        <v>302</v>
-      </c>
-      <c r="M14" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="N14" s="35" t="s">
-        <v>304</v>
-      </c>
-      <c r="O14" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="P14" s="35" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q14" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="R14" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="S14" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="T14" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="U14" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="V14" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="W14" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="X14" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="Y14" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z14" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA14" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="AB14" s="35" t="s">
-        <v>321</v>
-      </c>
-      <c r="AC14" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="AD14" s="35" t="s">
-        <v>366</v>
-      </c>
-      <c r="AI14" s="99"/>
-      <c r="AJ14" s="123">
-        <v>4</v>
-      </c>
-      <c r="AK14" s="123">
-        <v>3</v>
-      </c>
-      <c r="AL14" s="124">
-        <v>7</v>
-      </c>
-      <c r="AM14" s="123">
-        <v>6</v>
-      </c>
-      <c r="AN14" s="99"/>
-      <c r="AO14" s="123">
-        <v>5</v>
-      </c>
-      <c r="AP14" s="124">
-        <v>7</v>
-      </c>
-      <c r="AQ14" s="24"/>
-      <c r="AR14" s="1"/>
-    </row>
-    <row r="15" spans="2:44" ht="24" customHeight="1">
-      <c r="B15" s="74" t="s">
-        <v>377</v>
-      </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="N15" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="O15" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="P15" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q15" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="R15" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="S15" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="T15" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="U15" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="W15" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="X15" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y15" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z15" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA15" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB15" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="AC15" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD15" s="38"/>
-      <c r="AQ15" s="24"/>
-      <c r="AR15" s="1"/>
-    </row>
-    <row r="16" spans="2:44" ht="24" customHeight="1">
-      <c r="B16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32" t="str">
-        <f>U13</f>
-        <v>ㄚ</v>
-      </c>
-      <c r="AD16" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE16" s="34" t="str">
-        <f>D30</f>
-        <v>ㆩ</v>
-      </c>
-      <c r="AQ16" s="24"/>
-      <c r="AR16" s="1"/>
-    </row>
-    <row r="17" spans="2:44" ht="24" customHeight="1">
-      <c r="B17" s="31"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="32" t="str">
-        <f>V13</f>
-        <v>ㆦ</v>
-      </c>
-      <c r="AD17" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE17" s="34" t="str">
-        <f>F30</f>
-        <v>ㆧ</v>
-      </c>
-      <c r="AQ17" s="24"/>
-      <c r="AR17" s="1"/>
-    </row>
-    <row r="18" spans="2:44" ht="24" customHeight="1">
-      <c r="B18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="32" t="str">
-        <f>X13</f>
-        <v>ㆤ</v>
-      </c>
-      <c r="AD18" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE18" s="34" t="str">
-        <f>I30</f>
-        <v>ㆥ</v>
-      </c>
-      <c r="AF18" s="33"/>
-      <c r="AQ18" s="24"/>
-      <c r="AR18" s="1"/>
-    </row>
-    <row r="19" spans="2:44" ht="24" customHeight="1">
-      <c r="B19" s="31"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="32"/>
-      <c r="AC19" s="32" t="str">
-        <f>Y13</f>
-        <v>ㄞ</v>
-      </c>
-      <c r="AD19" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE19" s="34" t="str">
-        <f>K30</f>
-        <v>ㆮ</v>
-      </c>
-      <c r="AQ19" s="24"/>
-      <c r="AR19" s="1"/>
-    </row>
-    <row r="20" spans="2:44" ht="24" customHeight="1">
-      <c r="B20" s="31"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="32" t="str">
-        <f>Z13</f>
-        <v>ㄠ</v>
-      </c>
-      <c r="AD20" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE20" s="34" t="str">
-        <f>M30</f>
-        <v>ㆯ</v>
-      </c>
-      <c r="AQ20" s="24"/>
-      <c r="AR20" s="1"/>
-    </row>
-    <row r="21" spans="2:44" ht="24" customHeight="1">
-      <c r="B21" s="31"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="32" t="str">
-        <f>S13</f>
-        <v>ㄧ</v>
-      </c>
-      <c r="AD21" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE21" s="34" t="str">
-        <f>X30</f>
-        <v>ㆪ</v>
-      </c>
-      <c r="AQ21" s="24"/>
-      <c r="AR21" s="1"/>
-    </row>
-    <row r="22" spans="2:44" ht="24" customHeight="1">
-      <c r="B22" s="31"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="32"/>
-      <c r="AA22" s="32"/>
-      <c r="AB22" s="32"/>
-      <c r="AC22" s="32" t="str">
-        <f>T13</f>
-        <v>ㄨ</v>
-      </c>
-      <c r="AD22" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE22" s="34" t="str">
-        <f>Z30</f>
-        <v>ㆫ</v>
-      </c>
-    </row>
-    <row r="23" spans="2:44" ht="24" customHeight="1">
-      <c r="C23" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="2:44" ht="24" customHeight="1">
-      <c r="C24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="2:44" ht="24" customHeight="1">
-      <c r="C25" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="J25" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="K25" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="L25" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="M25" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="N25" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="O25" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="P25" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q25" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="R25" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="S25" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="T25" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="U25" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="V25" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="W25" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="X25" s="16"/>
-    </row>
-    <row r="26" spans="2:44" ht="27">
-      <c r="C26" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="L26" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="M26" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="N26" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="O26" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="P26" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q26" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="R26" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="S26" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="T26" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="U26" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="V26" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="W26" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="X26" s="16"/>
-    </row>
-    <row r="27" spans="2:44">
-      <c r="C27" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="K27" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="L27" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="M27" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="N27" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="O27" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="P27" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q27" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="R27" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="S27" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="T27" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="U27" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="V27" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="W27" s="21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="2:44">
-      <c r="C29" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="2:44">
-      <c r="C30" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="X30" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y30" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z30" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="2:44">
-      <c r="C31" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="I31" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="J31" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="K31" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="L31" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="M31" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="N31" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="O31" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="P31" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q31" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="R31" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="S31" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="T31" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="U31" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="V31" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="W31" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="X31" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="Y31" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="Z31" s="19" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="32" spans="2:44">
-      <c r="C32" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="I32" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="J32" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="K32" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="L32" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="M32" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="N32" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="O32" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="P32" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q32" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="R32" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="S32" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="T32" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="U32" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="V32" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="W32" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="X32" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y32" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="Z32" s="17" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="33" spans="3:26">
-      <c r="C33" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="J33" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="K33" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="L33" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="M33" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="N33" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="O33" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="P33" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q33" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="R33" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="S33" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="T33" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="U33" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="V33" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="W33" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="X33" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y33" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z33" s="22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="94">
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="AM4:AO4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="AG4:AI4"/>
-    <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="Y6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="AF9:AH9"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AC9:AE9"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7573,7 +8953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A576A2-0DF0-F64A-A360-B74C6313CDB1}">
   <dimension ref="B1:AF28"/>
   <sheetViews>
@@ -8143,11 +9523,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -9116,7 +10496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:B27"/>
   <sheetViews>
